--- a/数据处理清单.xlsx
+++ b/数据处理清单.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="45">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="52">
   <si>
     <t>完成情况</t>
   </si>
@@ -162,6 +162,27 @@
   </si>
   <si>
     <t>8个腿骨样本（F001分期下4个样本+F003分期下2个样本+F007分期下2个样本），标准分析+人工定义+组间差异</t>
+  </si>
+  <si>
+    <t>CQT2022122904-F003</t>
+  </si>
+  <si>
+    <t>/cqproj22/Project/scATAC_CQT2022122904-F003_human_20241014和/cqproj22/Project/SC_CQT2022122904-F003_human_20241017</t>
+  </si>
+  <si>
+    <t>scRNA+scATAC，原始数据路径/cqproj51/Rawdata/cqproj22_Rawdata_transfer/20240510/CQT2022122904_潘熠斌_scRNA_scATAC，原来的定量结果路径/cqproj22/Project/SC_SCATAC_CQT2022122904_hsa_panyibin/RNA|ATAC；定量+标准分析</t>
+  </si>
+  <si>
+    <t>CQT2024040913</t>
+  </si>
+  <si>
+    <t>FTY那边需要重新定量（更改样本名称），CQT2024040913-F003的C578W_HIP改为C572m_HIP；CQT2024040913-F005的MS1改为C572m_RE；CQT2024040913-F006的AD8W_HIP改为AD2m_HIP，AD8W_RE改为AD2m_RE</t>
+  </si>
+  <si>
+    <t>CQT2024070306</t>
+  </si>
+  <si>
+    <t>时慧敏，10/23（周三）会议答疑</t>
   </si>
 </sst>
 </file>
@@ -1325,10 +1346,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:E16"/>
+  <dimension ref="A1:E19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E6" sqref="E6"/>
+      <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="4"/>
@@ -1570,7 +1591,10 @@
         <v>38</v>
       </c>
     </row>
-    <row r="15" spans="2:5">
+    <row r="15" ht="14.25" spans="1:5">
+      <c r="A15" s="4" t="s">
+        <v>5</v>
+      </c>
       <c r="B15" s="1" t="s">
         <v>39</v>
       </c>
@@ -1584,7 +1608,10 @@
         <v>41</v>
       </c>
     </row>
-    <row r="16" spans="2:5">
+    <row r="16" ht="14.25" spans="1:5">
+      <c r="A16" s="4" t="s">
+        <v>5</v>
+      </c>
       <c r="B16" s="1" t="s">
         <v>42</v>
       </c>
@@ -1596,6 +1623,51 @@
       </c>
       <c r="E16" s="3" t="s">
         <v>44</v>
+      </c>
+    </row>
+    <row r="17" ht="14.25" spans="1:5">
+      <c r="A17" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="B17" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="C17" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="D17" s="2">
+        <v>45588</v>
+      </c>
+      <c r="E17" s="3" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="18" ht="14.25" spans="1:5">
+      <c r="A18" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="B18" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="D18" s="2">
+        <v>45588</v>
+      </c>
+      <c r="E18" s="3" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="19" ht="14.25" spans="1:5">
+      <c r="A19" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="B19" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="D19" s="2">
+        <v>45588</v>
+      </c>
+      <c r="E19" s="3" t="s">
+        <v>51</v>
       </c>
     </row>
   </sheetData>

--- a/数据处理清单.xlsx
+++ b/数据处理清单.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="52">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="96" uniqueCount="71">
   <si>
     <t>完成情况</t>
   </si>
@@ -183,6 +183,77 @@
   </si>
   <si>
     <t>时慧敏，10/23（周三）会议答疑</t>
+  </si>
+  <si>
+    <t>CQT2024083015-S002</t>
+  </si>
+  <si>
+    <t>/cqproj22/Project/BD_CQT2024083015-F002_human_20240927</t>
+  </si>
+  <si>
+    <t>对F002的结果下，将cluster1，2，5抽出来， 进行亚群分析。核心目的还是为了找粒细胞。不需要做定义。输出下面基因气泡图就行:basophil：PTPRC/ITGAM/FCER1A/KIT/CD63/ENPP3;eosinophil：PTPRC/ITGAM/CCR3/SIGLEC8/FCGR3A/CLC/IL5RA/EPX</t>
+  </si>
+  <si>
+    <t>CQT2024040804-S005</t>
+  </si>
+  <si>
+    <t>后面的分析都是针对S004的定义进行：
+1.将小胶进行亚群分析，包括自动定义（CELLMARKER_auto_Microglia文件夹）和cluster层面的（直接以clusterN命名细胞类型，CELLMARKER_manual_Microglia文件夹），以及组间分析；
+2. 若第1点的亚群分析获得的cluster数量较多(大于6个cluster)，请调整参数将cluster亚群数量控制在4～5个，再进行包括自动定义和cluster层面的，以及组间分析；同时第1点也要输出结果。如果默认参数获得的cluster数量在4～5个，则直接输出相应结果；
+3. 所有组间分析的富集结果，均需要区分上下调基因和不区分上下调的基因的富集结果。提取组间比较的差异基因的富集结果中与能量代谢（或者是代谢）相关的通路(关键词“metabolism"搜索即可)，一个cluster的代谢通路画在同一张图上(bar图)，同时给出数据列表。
+4. 做完前面亚群分析，在整合的小胶中，提取每个cluster与其他cluster比较的差异基因的富集结果中与能量代谢（或者是代谢）相关的通路(关键词“metabolism"搜索即可)，一个cluster的代谢通路画在同一张图上(bar图)，同时给出数据列表。
+5. 针对S004的diff group文件夹的小胶差异基因做火山图，标记排名前十的基因，按照例图。
+6. FABP5和AOPE在大群整合的、整合后分样本的表达热图；在小胶亚群分析中整合的、整合后分样本的表达热图。
+7. 小胶亚群分析中：输出FABP5+小胶和AOPE+小胶在各样本的细胞数及占比。
+（以上全部内容需要一起交付）</t>
+  </si>
+  <si>
+    <t>CQT2024041816</t>
+  </si>
+  <si>
+    <t>线上答疑</t>
+  </si>
+  <si>
+    <t>CQT2024062823-S002</t>
+  </si>
+  <si>
+    <t>针对CQT2024062823-S001肌肉的结果：
+需求1：对其中的0/1/3/9/10/13/14/19/22进行亚群分析，不需要定义，但是绘制总的marker基因气泡图
+需求2：对其中的2/5/6/11/17/18/20进行亚群分析，不需要定义，但是绘制总的marker基因气泡图。
+需求3：在大群上绘制一下基因的气泡图：
+MTJ：Col1a1/Col3a1/Myod1/Myf5/Mmp2/Mmp9/Plin1/Fap
+Adipocyte：Adipoq,Plin,Dgat2,Car3,Pparg
+NMJ：Musk/Lrp/Vamp</t>
+  </si>
+  <si>
+    <t>CQT2024062823-F008</t>
+  </si>
+  <si>
+    <t>/cqproj22/Project/SC_CQT2024062823-F008_mouse_20241029</t>
+  </si>
+  <si>
+    <t>6个肌肉样本的标准分析（数据来源：F001、F003、F007），客户有提供marker</t>
+  </si>
+  <si>
+    <t>CQT2023111808-S009</t>
+  </si>
+  <si>
+    <t>对S008结果中中性粒的分群结果：计算KEGG中铁死亡（mmu04216）/凋亡（mmu04210）通路的score热图，umap展示（抽取通路中的基因，利用Seurat的AddModuleScore计算一个分数）；对S008结果中macro的分群结果：展示Mki67，Top2a在每个群的表达量umap热图和小提琴图，计算自噬通路（mmu04140）的score热图，Umap展示</t>
+  </si>
+  <si>
+    <t>CQT2024062823-S003</t>
+  </si>
+  <si>
+    <t>基于CQT2024062823-F003结果，按照cluster进行分析： 绘制Sparcl1和Fndc5的小提琴图和umap热图。 需要每个cluster按照组别绘制和展示。 IM_1/2作为IM组，Young_1M/2M作为Young组</t>
+  </si>
+  <si>
+    <t>CQT2024101206-S001</t>
+  </si>
+  <si>
+    <t>/cqproj22/Project/SC_CQT2024101206-S001_mouse_20241101</t>
+  </si>
+  <si>
+    <t>小鼠。需要查看是否捕获到病毒片段。病毒片段与病毒引物见附件。(构建加入病毒片段的新参考基因组/cqproj51/CellRanger_Reference/tmp_CQT2024101206-S001/mm10_wihtNewGenes)</t>
   </si>
 </sst>
 </file>
@@ -1346,10 +1417,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:E19"/>
+  <dimension ref="A1:E27"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
+      <selection activeCell="E27" sqref="E27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="4"/>
@@ -1358,7 +1429,7 @@
     <col min="2" max="2" width="19.875" style="1" customWidth="1"/>
     <col min="3" max="3" width="55.5" style="1" customWidth="1"/>
     <col min="4" max="4" width="17" style="2" customWidth="1"/>
-    <col min="5" max="5" width="108" style="3" customWidth="1"/>
+    <col min="5" max="5" width="135.25" style="3" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5">
@@ -1670,6 +1741,118 @@
         <v>51</v>
       </c>
     </row>
+    <row r="20" ht="14.25" spans="1:5">
+      <c r="A20" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="B20" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="C20" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="D20" s="2">
+        <v>45588</v>
+      </c>
+      <c r="E20" s="3" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="21" spans="2:5">
+      <c r="B21" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="C21" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="D21" s="2">
+        <v>45594</v>
+      </c>
+      <c r="E21" s="3" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="22" spans="2:5">
+      <c r="B22" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="D22" s="2">
+        <v>45595</v>
+      </c>
+      <c r="E22" s="3" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="23" spans="2:5">
+      <c r="B23" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="C23" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="D23" s="2">
+        <v>45595</v>
+      </c>
+      <c r="E23" s="3" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="24" spans="2:5">
+      <c r="B24" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="C24" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="D24" s="2">
+        <v>45596</v>
+      </c>
+      <c r="E24" s="3" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="25" spans="2:5">
+      <c r="B25" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="C25" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="D25" s="2">
+        <v>45597</v>
+      </c>
+      <c r="E25" s="3" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="26" spans="2:5">
+      <c r="B26" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="C26" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="D26" s="2">
+        <v>45597</v>
+      </c>
+      <c r="E26" s="3" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="27" spans="2:5">
+      <c r="B27" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="C27" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="D27" s="2">
+        <v>45597</v>
+      </c>
+      <c r="E27" s="3" t="s">
+        <v>70</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>

--- a/数据处理清单.xlsx
+++ b/数据处理清单.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="96" uniqueCount="71">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="120" uniqueCount="90">
   <si>
     <t>完成情况</t>
   </si>
@@ -254,6 +254,68 @@
   </si>
   <si>
     <t>小鼠。需要查看是否捕获到病毒片段。病毒片段与病毒引物见附件。(构建加入病毒片段的新参考基因组/cqproj51/CellRanger_Reference/tmp_CQT2024101206-S001/mm10_wihtNewGenes)</t>
+  </si>
+  <si>
+    <t>CQT2024041816-S002</t>
+  </si>
+  <si>
+    <t>筛选出cluster4和cluster7（B细胞）分别相对于其他cluster的DEGs，需要加上p-value值</t>
+  </si>
+  <si>
+    <t>CQT2024040804-S006</t>
+  </si>
+  <si>
+    <t>以下小胶亚群分析选择默认分辨率，也就是分成11个cluster的结果：
+1. 小胶亚群分析中：输出每个样本的每个cluster表达的基因及表达量表格
+2. 小胶亚群分析中：在整合样本中去做，FABP5+细胞与其他的所有细胞做差异分析，FABP5+细胞 vs 其他的所有细胞，相当于FABP5+细胞是实验组，输出差异分析的表格，请说明差异分析的阈值；用差异基因去做富集分析，包括go、kegg、gsea，只需要给出列表，不需要画图。上下调分开，以及不区分上下调都需要做
+3. 小胶亚群分析中：用整合后的brain T去做，cluster4比其他所有cluster的差异分析，cluster4 vs 其他所有cluster，相当于cluster4是实验组，输出差异分析的表格，说明差异分析的阈值；用差异基因去做富集分析，包括go、kegg、gsea，只需要给出列表，不需要画图。上下调分开，以及不区分上下调都需要做。
+4. 小胶的cluster10在整合的大群里面的umap分布图
+5. S005中的火山图请再次输出结果：标注FC上下调各top10，共20个基因，上下调的颜色请区分开，请按照附件提供的例图出图</t>
+  </si>
+  <si>
+    <t>CQT2024090405-F001</t>
+  </si>
+  <si>
+    <t>/cqproj22/Project/Mobi_CQT2024090405-F001_mouse_20241101</t>
+  </si>
+  <si>
+    <t>标准分析+自动定义+组间差异</t>
+  </si>
+  <si>
+    <t>CQT2024060405-F001</t>
+  </si>
+  <si>
+    <t>/cqproj22/Project/SC_CQT2024060405-F001_mouse_20241105</t>
+  </si>
+  <si>
+    <t>单样本自动定义（技术想要查看中性粒细胞占比），产品那边的需求，非售后分析（提供了三个样本的自动定义结果UMAP）</t>
+  </si>
+  <si>
+    <t>CQT2024070101-S003</t>
+  </si>
+  <si>
+    <t>/cqproj22/Project/SC_CQT2024070101-F003_human_20240920</t>
+  </si>
+  <si>
+    <t>整合分析去批次后的结果中，司内测序的3个样本批次效应比较大。需求：辛苦换其他去批次效应的方法试下（比如harmony），交付去批次效应后每个样本的展示图，最好能直观展示出来去批次后每个样本的相似情况。</t>
+  </si>
+  <si>
+    <t>CQT2024062823-S004</t>
+  </si>
+  <si>
+    <t>针对CQT2024062823-F003结果：按照cluster进行分析： 绘制 Insrr Prnp Itgav的小提琴图和umap热图。 需要每个cluster按照组别绘制和展示。 IM_1/2作为IM组，Young_1M/2M作为Young组。同时交付有细胞类型的umap图，老师需要比对着看（运营反馈使用新版的markers重新做细胞定义，本次先提交展示基因表达的小提琴图和UMAP热图）</t>
+  </si>
+  <si>
+    <t>CQT2024062823-S005</t>
+  </si>
+  <si>
+    <t>使用新版的markers重新做细胞定义</t>
+  </si>
+  <si>
+    <t>CQT2024101206-S002</t>
+  </si>
+  <si>
+    <t>1、在CQT2024101206-S001的基础上，对有检出病毒表达的细胞进行自动定义；2、做一个UMAP的单细胞图，然后突出显示出其中病毒阳性的细胞</t>
   </si>
 </sst>
 </file>
@@ -1417,10 +1479,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:E27"/>
+  <dimension ref="A1:E35"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E27" sqref="E27"/>
+      <selection activeCell="E35" sqref="E35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="4"/>
@@ -1853,6 +1915,118 @@
         <v>70</v>
       </c>
     </row>
+    <row r="28" spans="2:5">
+      <c r="B28" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="C28" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D28" s="2">
+        <v>45600</v>
+      </c>
+      <c r="E28" s="3" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="29" spans="2:5">
+      <c r="B29" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="C29" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="D29" s="2">
+        <v>45601</v>
+      </c>
+      <c r="E29" s="3" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="30" spans="2:5">
+      <c r="B30" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="C30" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="D30" s="2">
+        <v>45601</v>
+      </c>
+      <c r="E30" s="3" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="31" spans="2:5">
+      <c r="B31" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="C31" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="D31" s="2">
+        <v>45602</v>
+      </c>
+      <c r="E31" s="3" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="32" spans="2:5">
+      <c r="B32" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="C32" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="D32" s="2">
+        <v>45602</v>
+      </c>
+      <c r="E32" s="3" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="33" spans="2:5">
+      <c r="B33" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="C33" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="D33" s="2">
+        <v>45603</v>
+      </c>
+      <c r="E33" s="3" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="34" spans="2:5">
+      <c r="B34" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="C34" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="D34" s="2">
+        <v>45603</v>
+      </c>
+      <c r="E34" s="3" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="35" spans="2:5">
+      <c r="B35" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="C35" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="D35" s="2">
+        <v>45604</v>
+      </c>
+      <c r="E35" s="3" t="s">
+        <v>89</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>

--- a/数据处理清单.xlsx
+++ b/数据处理清单.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="120" uniqueCount="90">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="154" uniqueCount="102">
   <si>
     <t>完成情况</t>
   </si>
@@ -316,6 +316,46 @@
   </si>
   <si>
     <t>1、在CQT2024101206-S001的基础上，对有检出病毒表达的细胞进行自动定义；2、做一个UMAP的单细胞图，然后突出显示出其中病毒阳性的细胞</t>
+  </si>
+  <si>
+    <t>CQT2024051201-S002</t>
+  </si>
+  <si>
+    <t>/cqproj22/Project/SC_CQT2024051201-F003_mouse_20240806</t>
+  </si>
+  <si>
+    <t>抽取里面的免疫细胞。重新降维聚类，并自动定义。免疫细胞cluster：3/6/8/10/12/16/17/24/29/30/31/34/35/36/5/9/28</t>
+  </si>
+  <si>
+    <t>CQT2024080807-S003</t>
+  </si>
+  <si>
+    <t>20241029分析需求：需要先通过文章（https://www.cell.com/cell/fulltext/S0092-8674(24)00408-2）看看能不能定义出MEP（交付的结果需要包括mep的亚群注释）（11.05反馈运营后，客户确认将clsuter12更改为MEP细胞，改完重新制作UMAP给客户先确认）
+1 细胞周期分析补充Ctrl和KO组的比较结果
+2 velocyto分析和组间细胞占比柱状图
+3 LT-HSC和ST-HSC进行亚群分析（通过差异基因分析，即以top1差异基因命名子clusters（有必要的话可以调整分辨率控制subclsuters数在4-5个），同时可以计算pseudobulk，查看clusters之间的相关性）
+4 待确认 LT-HSC和ST-HSC亚群结果后安排拟时序分析</t>
+  </si>
+  <si>
+    <t>CQT2024072405-S001</t>
+  </si>
+  <si>
+    <t>/cqproj22/Project/Mobi_CQT2024072405-S001_human_20241107</t>
+  </si>
+  <si>
+    <t>将以下链接的HIV病毒序列加入到之前分析的人基因组中，一起再进行定量分析（MobiNova，定量结果路径：/cqproj3/Project/SC_CQT2024072405-S001_mouse_20241105和/cqproj51/Project/Mobi_CQT2024072405-S001_human_20241107）+ 标准分析（11.12 与运营沟通，确认先进行大群定义），信息搜集表见附件，老师有提供对应的marker。（CQT2024072405-F001）</t>
+  </si>
+  <si>
+    <t>CQT2024091701-S001</t>
+  </si>
+  <si>
+    <t>singleR自动定义</t>
+  </si>
+  <si>
+    <t>CQT2024070306-S004</t>
+  </si>
+  <si>
+    <t>本次交付：1.调整定义结果（调整cluster3为LE细胞）后的差异分析和富集分析结果；2.需求8的GSVA分析结果（KEGG通路）</t>
   </si>
 </sst>
 </file>
@@ -1479,10 +1519,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:E35"/>
+  <dimension ref="A1:E40"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E35" sqref="E35"/>
+    <sheetView tabSelected="1" topLeftCell="A12" workbookViewId="0">
+      <selection activeCell="E25" sqref="E25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="4"/>
@@ -1491,7 +1531,7 @@
     <col min="2" max="2" width="19.875" style="1" customWidth="1"/>
     <col min="3" max="3" width="55.5" style="1" customWidth="1"/>
     <col min="4" max="4" width="17" style="2" customWidth="1"/>
-    <col min="5" max="5" width="135.25" style="3" customWidth="1"/>
+    <col min="5" max="5" width="118" style="3" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5">
@@ -1820,7 +1860,10 @@
         <v>54</v>
       </c>
     </row>
-    <row r="21" spans="2:5">
+    <row r="21" ht="14.25" spans="1:5">
+      <c r="A21" s="4" t="s">
+        <v>5</v>
+      </c>
       <c r="B21" s="1" t="s">
         <v>55</v>
       </c>
@@ -1834,7 +1877,10 @@
         <v>56</v>
       </c>
     </row>
-    <row r="22" spans="2:5">
+    <row r="22" ht="14.25" spans="1:5">
+      <c r="A22" s="4" t="s">
+        <v>5</v>
+      </c>
       <c r="B22" s="1" t="s">
         <v>57</v>
       </c>
@@ -1845,7 +1891,10 @@
         <v>58</v>
       </c>
     </row>
-    <row r="23" spans="2:5">
+    <row r="23" ht="14.25" spans="1:5">
+      <c r="A23" s="4" t="s">
+        <v>5</v>
+      </c>
       <c r="B23" s="1" t="s">
         <v>59</v>
       </c>
@@ -1859,7 +1908,10 @@
         <v>60</v>
       </c>
     </row>
-    <row r="24" spans="2:5">
+    <row r="24" ht="14.25" spans="1:5">
+      <c r="A24" s="4" t="s">
+        <v>5</v>
+      </c>
       <c r="B24" s="1" t="s">
         <v>61</v>
       </c>
@@ -1873,7 +1925,10 @@
         <v>63</v>
       </c>
     </row>
-    <row r="25" spans="2:5">
+    <row r="25" ht="14.25" spans="1:5">
+      <c r="A25" s="4" t="s">
+        <v>5</v>
+      </c>
       <c r="B25" s="1" t="s">
         <v>64</v>
       </c>
@@ -1887,7 +1942,10 @@
         <v>65</v>
       </c>
     </row>
-    <row r="26" spans="2:5">
+    <row r="26" ht="14.25" spans="1:5">
+      <c r="A26" s="4" t="s">
+        <v>5</v>
+      </c>
       <c r="B26" s="1" t="s">
         <v>66</v>
       </c>
@@ -1901,7 +1959,10 @@
         <v>67</v>
       </c>
     </row>
-    <row r="27" spans="2:5">
+    <row r="27" ht="14.25" spans="1:5">
+      <c r="A27" s="4" t="s">
+        <v>5</v>
+      </c>
       <c r="B27" s="1" t="s">
         <v>68</v>
       </c>
@@ -1915,7 +1976,10 @@
         <v>70</v>
       </c>
     </row>
-    <row r="28" spans="2:5">
+    <row r="28" ht="14.25" spans="1:5">
+      <c r="A28" s="4" t="s">
+        <v>5</v>
+      </c>
       <c r="B28" s="1" t="s">
         <v>71</v>
       </c>
@@ -1929,7 +1993,10 @@
         <v>72</v>
       </c>
     </row>
-    <row r="29" spans="2:5">
+    <row r="29" ht="14.25" spans="1:5">
+      <c r="A29" s="4" t="s">
+        <v>5</v>
+      </c>
       <c r="B29" s="1" t="s">
         <v>73</v>
       </c>
@@ -1943,7 +2010,10 @@
         <v>74</v>
       </c>
     </row>
-    <row r="30" spans="2:5">
+    <row r="30" ht="14.25" spans="1:5">
+      <c r="A30" s="4" t="s">
+        <v>5</v>
+      </c>
       <c r="B30" s="1" t="s">
         <v>75</v>
       </c>
@@ -1957,7 +2027,10 @@
         <v>77</v>
       </c>
     </row>
-    <row r="31" spans="2:5">
+    <row r="31" ht="14.25" spans="1:5">
+      <c r="A31" s="4" t="s">
+        <v>5</v>
+      </c>
       <c r="B31" s="1" t="s">
         <v>78</v>
       </c>
@@ -1971,7 +2044,10 @@
         <v>80</v>
       </c>
     </row>
-    <row r="32" spans="2:5">
+    <row r="32" ht="14.25" spans="1:5">
+      <c r="A32" s="4" t="s">
+        <v>5</v>
+      </c>
       <c r="B32" s="1" t="s">
         <v>81</v>
       </c>
@@ -1985,7 +2061,10 @@
         <v>83</v>
       </c>
     </row>
-    <row r="33" spans="2:5">
+    <row r="33" ht="14.25" spans="1:5">
+      <c r="A33" s="4" t="s">
+        <v>5</v>
+      </c>
       <c r="B33" s="1" t="s">
         <v>84</v>
       </c>
@@ -1999,7 +2078,10 @@
         <v>85</v>
       </c>
     </row>
-    <row r="34" spans="2:5">
+    <row r="34" ht="14.25" spans="1:5">
+      <c r="A34" s="4" t="s">
+        <v>5</v>
+      </c>
       <c r="B34" s="1" t="s">
         <v>86</v>
       </c>
@@ -2013,7 +2095,10 @@
         <v>87</v>
       </c>
     </row>
-    <row r="35" spans="2:5">
+    <row r="35" ht="14.25" spans="1:5">
+      <c r="A35" s="4" t="s">
+        <v>5</v>
+      </c>
       <c r="B35" s="1" t="s">
         <v>88</v>
       </c>
@@ -2025,6 +2110,88 @@
       </c>
       <c r="E35" s="3" t="s">
         <v>89</v>
+      </c>
+    </row>
+    <row r="36" ht="14.25" spans="1:5">
+      <c r="A36" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="B36" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="C36" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="D36" s="2">
+        <v>45607</v>
+      </c>
+      <c r="E36" s="3" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="37" ht="14.25" spans="1:5">
+      <c r="A37" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="B37" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="C37" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="D37" s="2">
+        <v>45608</v>
+      </c>
+      <c r="E37" s="3" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="38" ht="14.25" spans="1:5">
+      <c r="A38" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="B38" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="C38" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="D38" s="2">
+        <v>45609</v>
+      </c>
+      <c r="E38" s="3" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="39" ht="14.25" spans="1:5">
+      <c r="A39" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="B39" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="C39" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="D39" s="2">
+        <v>45610</v>
+      </c>
+      <c r="E39" s="3" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="40" spans="2:5">
+      <c r="B40" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="C40" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="D40" s="2">
+        <v>45611</v>
+      </c>
+      <c r="E40" s="3" t="s">
+        <v>101</v>
       </c>
     </row>
   </sheetData>

--- a/数据处理清单.xlsx
+++ b/数据处理清单.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="154" uniqueCount="102">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="166" uniqueCount="108">
   <si>
     <t>完成情况</t>
   </si>
@@ -356,6 +356,43 @@
   </si>
   <si>
     <t>本次交付：1.调整定义结果（调整cluster3为LE细胞）后的差异分析和富集分析结果；2.需求8的GSVA分析结果（KEGG通路）</t>
+  </si>
+  <si>
+    <t>CQT2023111808-S010</t>
+  </si>
+  <si>
+    <t>1、S009分析结果中的两个需求，按照组别分别分析展示，score得分热图。
+2、核实一下S008的需求1中免疫大群的细胞组间细胞t-test的计算问题。pvalue都不小于0.01
+3、以MT50的所有细胞结果，画一个Ptprc基因的umap图/t-sne图的表达热图
+4、以S008的免疫结果中：macrophae/DC/Neu/mono即除T/B外的髓系免疫细胞做一个拟时序分析。
+5、以S008的免疫细胞亚群绘制例图1的火山图（展示每个细胞类型的DEGs）。
+6、以S008的免疫定义，绘制Neu/Macro的所有组间差异基因（差异阈值用常用）的趋势聚类分析（分别提取Health, SAKI_D2和SAKI_D7的细胞后做基因层面的Kmeans聚类，K跟据结果人工取一个合适的值）。展示顺序：Health、SAKI_D2、SAKI_D7
+7、需要绘制S008中免疫之间的配受体分析。需要做组间差异分析。同时需要展示每个组的细胞间互作数目的圈图。
+8、对S002结果中的PT亚群，绘制Lrp2/Slc34a1的umap表达热图。</t>
+  </si>
+  <si>
+    <t>CQT2024070701-S001</t>
+  </si>
+  <si>
+    <t>/cqproj22/Project/SC_CQT2024070701-F001_mouse_20240820</t>
+  </si>
+  <si>
+    <t>CQT2024040804-S007</t>
+  </si>
+  <si>
+    <t>part1
+（1）提取excle 1.中的FABP5+ micoglia GSEA DownUp GO表中富集的信号通路中的所有DEGs，并去掉重复的基因并帮我生成新的DEGs表头按照excle2.中所示，并制作heatmap。
+（2）比对：（1）中得到得DEGs list 与excle2.中的基因list是否相同。帮我比对下，因为Excle2. 中的Lipid metabolism relative DEGs为我手动查找。如果一致，请Excle2.中也就是FABP5+_vs_FABP5- microglia 中avg_log2FC TOP10基因及Plin2基因共11个基因做成小提琴图如例图1, X轴为FABP5+ microglia，FABP5- microglia。此外，还需要做TOP10基因和基因plin2的UMAP图，在整体和三个组别中的结果都需要。
+（3）将excle 1.中的FABP5+ micoglia GSEA DownUp GO表格中的NES top20的信号通路做成如下图一样的例图2，用圆圈大小表示log p adjust，颜色深浅代表enrichmentScore，X轴用NES。
+图命名为FABP5+_vs_FABP5- microglia; 此外输出top20的GSEA图结果例图3（gseaplot2）
+（4）将excle 1.中的FABP5+micoglia GSEADownUp KEGG表格中NES排名TOP10的信号通路做Enrichment 气泡图如（例图4）所示，但需要用颜色深浅代表Pvalue，不要用padjust，x轴用NES，用圆圈大小表示基因count，排序按照基因count由大到小。
+part2
+（1）提取excle 中的BrainT_cluster4 GSEA UpDown GO表中富集的信号通路中的所有DEGs，并去掉重复的基因并帮我生成新的DEGs表头和上次提供的一样，并制作heatmap。
+（2）BrainT cluster4 _vs_other clusters的 microglia 中avg_log2FC TOP10基因及Plin2基因共11个基因做成小提琴图如例图1, X轴为cluster 4，other clusters 。此外，还需要做TOP10基因和plin2的UMAP图，在整体和三个组别中的结果。
+（3）将BrainT_cluster4 GSEA UpDown GO表格中的NES top20的信号通路做成如下图一样的例图2，用圆圈大小表示log p adjust，颜色深浅代表enrichmentScore，X轴用NES。
+; 此外输出top20的GSEA图结果。
+（4）将BrainT_cluster4 GSEA UpdownKEGG表格中NES排名TOP10的信号通路做Enrichment 气泡图如（例图4）所示，但需要用颜色深浅代表Pvalue，不要用padjust，x轴用NES，用圆圈大小表示基因count，排序按照基因count由大到小。
+（5）所有图片输出字体为Arial，大小为20。</t>
   </si>
 </sst>
 </file>
@@ -1519,10 +1556,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:E40"/>
+  <dimension ref="A1:E43"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A12" workbookViewId="0">
-      <selection activeCell="E25" sqref="E25"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="B43" sqref="B43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="4"/>
@@ -2180,7 +2217,10 @@
         <v>99</v>
       </c>
     </row>
-    <row r="40" spans="2:5">
+    <row r="40" ht="14.25" spans="1:5">
+      <c r="A40" s="4" t="s">
+        <v>5</v>
+      </c>
       <c r="B40" s="1" t="s">
         <v>100</v>
       </c>
@@ -2192,6 +2232,54 @@
       </c>
       <c r="E40" s="3" t="s">
         <v>101</v>
+      </c>
+    </row>
+    <row r="41" ht="14.25" spans="1:5">
+      <c r="A41" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="B41" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="C41" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="D41" s="2">
+        <v>45617</v>
+      </c>
+      <c r="E41" s="3" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="42" ht="14.25" spans="1:5">
+      <c r="A42" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="B42" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="C42" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="D42" s="2">
+        <v>45617</v>
+      </c>
+      <c r="E42" s="3" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="43" spans="2:5">
+      <c r="B43" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="C43" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="D43" s="2">
+        <v>45618</v>
+      </c>
+      <c r="E43" s="3" t="s">
+        <v>107</v>
       </c>
     </row>
   </sheetData>

--- a/数据处理清单.xlsx
+++ b/数据处理清单.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="166" uniqueCount="108">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="183" uniqueCount="118">
   <si>
     <t>完成情况</t>
   </si>
@@ -393,6 +393,39 @@
 ; 此外输出top20的GSEA图结果。
 （4）将BrainT_cluster4 GSEA UpdownKEGG表格中NES排名TOP10的信号通路做Enrichment 气泡图如（例图4）所示，但需要用颜色深浅代表Pvalue，不要用padjust，x轴用NES，用圆圈大小表示基因count，排序按照基因count由大到小。
 （5）所有图片输出字体为Arial，大小为20。</t>
+  </si>
+  <si>
+    <t>CQT2024080807-S004</t>
+  </si>
+  <si>
+    <t>1、进行相关性分析筛选Ctrl和KO（2个样本一起、不分组）中Srsf1和哪些基因的表达水平高度相关；2、补充样本Ctrl、KO中每个亚群的细胞周期分析；3、两个样本分别去掉mono/macrophage、CLP、MEP后，单个样本进行拟时序分析。</t>
+  </si>
+  <si>
+    <t>CQT2024091701-S002</t>
+  </si>
+  <si>
+    <t>根据客户的需求进行分析，部分需求中，基因数较多，如果不好做气泡图，可以做成热图：
+1.根据文档（cell marker-文献）分大类一、二两点分别对cluster进行细胞大类注释
+2.跑一下每种细胞marker（文件夹1.DEGs, 2.DEGs）在所有culster的表达气泡图
+3.使用harmony去批次看看cluster整合效果有没有比CCA的效果更好</t>
+  </si>
+  <si>
+    <t>CQT2024070101-S005</t>
+  </si>
+  <si>
+    <t>/cqproj22/Project/SC_CQT2024070101-S005_human_20241126</t>
+  </si>
+  <si>
+    <t>F002/F003/F004分期下（剔除明显有差异的第1个样本）的3个测序样本(IPF_yy_2_3、IPF_ZGX_3_3、IPF_cyq_4)辛苦做下整合，看下整合去批次后的批次效应</t>
+  </si>
+  <si>
+    <t>CQT2024080205-S002</t>
+  </si>
+  <si>
+    <t>/cqproj22/Project/C4_CQT2024080205-F001_mouse_20240904</t>
+  </si>
+  <si>
+    <t>用软件算下双胞率</t>
   </si>
 </sst>
 </file>
@@ -1556,10 +1589,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:E43"/>
+  <dimension ref="A1:E47"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="B43" sqref="B43"/>
+    <sheetView tabSelected="1" topLeftCell="A24" workbookViewId="0">
+      <selection activeCell="A47" sqref="A47"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="4"/>
@@ -2268,7 +2301,10 @@
         <v>31</v>
       </c>
     </row>
-    <row r="43" spans="2:5">
+    <row r="43" ht="14.25" spans="1:5">
+      <c r="A43" s="4" t="s">
+        <v>5</v>
+      </c>
       <c r="B43" s="1" t="s">
         <v>106</v>
       </c>
@@ -2280,6 +2316,74 @@
       </c>
       <c r="E43" s="3" t="s">
         <v>107</v>
+      </c>
+    </row>
+    <row r="44" ht="14.25" spans="1:5">
+      <c r="A44" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="B44" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="C44" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="D44" s="2">
+        <v>45622</v>
+      </c>
+      <c r="E44" s="3" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="45" ht="14.25" spans="1:5">
+      <c r="A45" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="B45" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="C45" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="D45" s="2">
+        <v>45625</v>
+      </c>
+      <c r="E45" s="3" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="46" ht="14.25" spans="1:5">
+      <c r="A46" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="B46" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="C46" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="D46" s="2">
+        <v>45625</v>
+      </c>
+      <c r="E46" s="3" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="47" ht="14.25" spans="1:5">
+      <c r="A47" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="B47" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="C47" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="D47" s="2">
+        <v>45625</v>
+      </c>
+      <c r="E47" s="3" t="s">
+        <v>117</v>
       </c>
     </row>
   </sheetData>

--- a/数据处理清单.xlsx
+++ b/数据处理清单.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="183" uniqueCount="118">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="199" uniqueCount="129">
   <si>
     <t>完成情况</t>
   </si>
@@ -426,6 +426,48 @@
   </si>
   <si>
     <t>用软件算下双胞率</t>
+  </si>
+  <si>
+    <t>CQT2024080706-S002</t>
+  </si>
+  <si>
+    <t>/cqproj22/Project/SC_CQT2024080706-F001_mouse_20240910</t>
+  </si>
+  <si>
+    <t>根据客户提供的marker信息，重新进行细胞定义。</t>
+  </si>
+  <si>
+    <t>CQT2024051201-S003</t>
+  </si>
+  <si>
+    <t>需求1： 按照提供的markerlist对大群进行重新定义。（需要11.29前做完，然后先交付）（反馈运营markerlist和前面提供的一致，答复忽略需求1直接往下做）
+需求2：cluster1/2/4/11/20/26/22定义为endothelial。 抽取进行亚群分析。 定义采用markerlist进行定义，需要绘制findcluster结果（使用clustree包绘制）
+需求3：cluster6/16/36定义为neutrophil，抽取进行亚群分析，定义采用高表达基因进行定义，需要绘制findcluster的结果。尽量不要拆分同一位置的cluster。
+需求4：对需求2和需求3中的endothelial和neutrophil进行配受体分析（从大群中提取这两群细胞后再进行），需要展示三个组之间的变化差异。如互作数量，按组展示。 组间差异分析等
+需求5：对需求3中的中性粒亚群，绘制通路mmu04210（细胞凋亡）/mmu04613（NETosis）/mmu04670（白细胞内皮迁移）/mmu04140（自噬）/mmu04666（吞噬）/mmu05150（趋化相关）/mmu00010（糖酵解）通路的富集得分score热图。Pkm2/Cd274基因的表达分布umap热图。</t>
+  </si>
+  <si>
+    <t>CQT2024040804-S008</t>
+  </si>
+  <si>
+    <t>针对S007的售后，辛苦生信老师重新调整
+1. 所有GO pathway 按照圆圈大小排序（从上到下排，圆圈越来越小），且X轴NES变为整数 1 2 3，且圆圈大小能不能再大一点，现在小的太小了，是否可以调整成：不要让小的看起来很小，大的看起来很大。（即圆圈大一些，且大小均匀一些）；
+2. KEGG pathway 做成条形图，颜色代表p值，X轴代表NES，不需要Count，如例图；
+3. 小提琴图输出不含有点的图，并标注差异显著性。</t>
+  </si>
+  <si>
+    <t>CQT2023111808-S011</t>
+  </si>
+  <si>
+    <t>需求1：对免疫细胞中的巨噬细胞和中心粒细胞进行拟时序分析。 按照之前的亚群分析结果。
+需求2：S010里的需求5的火山图是需要画每个细胞类型在三个组间两两比较的差异基因火山图（CelltypeA在GroupA中的细胞比上CelltypeA在GroupB中的细胞）
+需求3：S010里需求6，按照3个cluster的分类，拆分成3个数据集进行热图和富集分析绘制</t>
+  </si>
+  <si>
+    <t>CQT2024070101-S006</t>
+  </si>
+  <si>
+    <t>6个样本（客户之前提供的3个文献中的数据+3个司内测序的数据）进行标准分析，自动定义</t>
   </si>
 </sst>
 </file>
@@ -1589,10 +1631,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:E47"/>
+  <dimension ref="A1:E52"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A24" workbookViewId="0">
-      <selection activeCell="A47" sqref="A47"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E29" sqref="E29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="4"/>
@@ -2386,6 +2428,79 @@
         <v>117</v>
       </c>
     </row>
+    <row r="48" ht="14.25" spans="1:5">
+      <c r="A48" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="B48" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="C48" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="D48" s="2">
+        <v>45628</v>
+      </c>
+      <c r="E48" s="3" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="49" spans="2:5">
+      <c r="B49" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="C49" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="D49" s="2">
+        <v>45629</v>
+      </c>
+      <c r="E49" s="3" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="50" spans="2:5">
+      <c r="B50" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="C50" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="D50" s="2">
+        <v>45630</v>
+      </c>
+      <c r="E50" s="3" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="51" spans="2:5">
+      <c r="B51" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="C51" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="D51" s="2">
+        <v>45632</v>
+      </c>
+      <c r="E51" s="3" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="52" spans="2:5">
+      <c r="B52" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="C52" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="D52" s="2">
+        <v>45632</v>
+      </c>
+      <c r="E52" s="3" t="s">
+        <v>128</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>

--- a/数据处理清单.xlsx
+++ b/数据处理清单.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="199" uniqueCount="129">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="219" uniqueCount="139">
   <si>
     <t>完成情况</t>
   </si>
@@ -467,7 +467,42 @@
     <t>CQT2024070101-S006</t>
   </si>
   <si>
+    <t>/cqproj22/Project/SC_CQT2024070101-S006_human_20241204</t>
+  </si>
+  <si>
     <t>6个样本（客户之前提供的3个文献中的数据+3个司内测序的数据）进行标准分析，自动定义</t>
+  </si>
+  <si>
+    <t>CQT2024070701-S002</t>
+  </si>
+  <si>
+    <t>基于S001新定义进行后面的分析
+1. 对B_cell、CD8+_T_cells、DCs、Epithelium、Macrophage、Memory_T_cells分别进行亚群分析，每种细胞分了多少个亚群，先告知叶婷（12.04反馈运营确认亚群数量）
+2. 确认好第1点，进行标准亚群分析（先执行自动定义），进行组间分析（包括富集等）
+3. 在整合后的C_BMNPs中进行，提取上皮细胞中的CD8T细胞，与其他CD8T进行差异分析，给出差异基因列表、富集分析结果（全部的、上下调分开的）、以及上皮细胞中的CD8T细胞的数量</t>
+  </si>
+  <si>
+    <t>CQT2024040804-S009</t>
+  </si>
+  <si>
+    <t>针对小胶亚群，出结果先给叶婷，先不发给老师：
+1.shame, lung_T, Brain_T 三个样本（整合后分样本）的小胶的基因列表，请输出表达量数据（老师需要用于做热图，比如A、B、C等基因在三组的小胶里面的表达热图，例图在附件，无需做图，只需数据），标注这个基因是否为差异基因（一个基因只要在两组之间达到FDR &lt; 0.05，pct &gt; 1%就算他是差异基因，pairwise wilcox-test）
+2. 富集分析，差异表达基因的GSEA（用go 和KEGG来做），只需要输出两个excel表格，无需做图</t>
+  </si>
+  <si>
+    <t>CQT2024110505-S001</t>
+  </si>
+  <si>
+    <t>/cqproj22/Project/Mobi_CQT2024110505-S001_human_20241209</t>
+  </si>
+  <si>
+    <t>自动定义 + 统计占比</t>
+  </si>
+  <si>
+    <t>CQT2024072405-S003</t>
+  </si>
+  <si>
+    <t>根据客户提供的marker进行大群注释</t>
   </si>
 </sst>
 </file>
@@ -1631,10 +1666,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:E52"/>
+  <dimension ref="A1:E56"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E29" sqref="E29"/>
+    <sheetView tabSelected="1" topLeftCell="A37" workbookViewId="0">
+      <selection activeCell="B30" sqref="B30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="4"/>
@@ -2445,7 +2480,10 @@
         <v>120</v>
       </c>
     </row>
-    <row r="49" spans="2:5">
+    <row r="49" ht="14.25" spans="1:5">
+      <c r="A49" s="4" t="s">
+        <v>5</v>
+      </c>
       <c r="B49" s="1" t="s">
         <v>121</v>
       </c>
@@ -2459,7 +2497,10 @@
         <v>122</v>
       </c>
     </row>
-    <row r="50" spans="2:5">
+    <row r="50" ht="14.25" spans="1:5">
+      <c r="A50" s="4" t="s">
+        <v>5</v>
+      </c>
       <c r="B50" s="1" t="s">
         <v>123</v>
       </c>
@@ -2473,7 +2514,10 @@
         <v>124</v>
       </c>
     </row>
-    <row r="51" spans="2:5">
+    <row r="51" ht="14.25" spans="1:5">
+      <c r="A51" s="4" t="s">
+        <v>5</v>
+      </c>
       <c r="B51" s="1" t="s">
         <v>125</v>
       </c>
@@ -2487,18 +2531,89 @@
         <v>126</v>
       </c>
     </row>
-    <row r="52" spans="2:5">
+    <row r="52" ht="14.25" spans="1:5">
+      <c r="A52" s="4" t="s">
+        <v>5</v>
+      </c>
       <c r="B52" s="1" t="s">
         <v>127</v>
       </c>
       <c r="C52" s="1" t="s">
-        <v>113</v>
+        <v>128</v>
       </c>
       <c r="D52" s="2">
         <v>45632</v>
       </c>
       <c r="E52" s="3" t="s">
-        <v>128</v>
+        <v>129</v>
+      </c>
+    </row>
+    <row r="53" ht="14.25" spans="1:5">
+      <c r="A53" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="B53" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="C53" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="D53" s="2">
+        <v>45635</v>
+      </c>
+      <c r="E53" s="3" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="54" ht="14.25" spans="1:5">
+      <c r="A54" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="B54" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="C54" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="D54" s="2">
+        <v>45635</v>
+      </c>
+      <c r="E54" s="3" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="55" ht="14.25" spans="1:5">
+      <c r="A55" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="B55" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="C55" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="D55" s="2">
+        <v>45636</v>
+      </c>
+      <c r="E55" s="3" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="56" ht="14.25" spans="1:5">
+      <c r="A56" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="B56" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="C56" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="D56" s="2">
+        <v>45637</v>
+      </c>
+      <c r="E56" s="3" t="s">
+        <v>138</v>
       </c>
     </row>
   </sheetData>

--- a/数据处理清单.xlsx
+++ b/数据处理清单.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28800" windowHeight="12255"/>
+    <workbookView windowWidth="29010" windowHeight="13185"/>
   </bookViews>
   <sheets>
     <sheet name="2024" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="219" uniqueCount="139">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="230" uniqueCount="145">
   <si>
     <t>完成情况</t>
   </si>
@@ -470,9 +470,6 @@
     <t>/cqproj22/Project/SC_CQT2024070101-S006_human_20241204</t>
   </si>
   <si>
-    <t>6个样本（客户之前提供的3个文献中的数据+3个司内测序的数据）进行标准分析，自动定义</t>
-  </si>
-  <si>
     <t>CQT2024070701-S002</t>
   </si>
   <si>
@@ -503,6 +500,29 @@
   </si>
   <si>
     <t>根据客户提供的marker进行大群注释</t>
+  </si>
+  <si>
+    <t>CQT2024042607-S001</t>
+  </si>
+  <si>
+    <t>/cqproj22/Project/SC_CQT2024042607-F015_mouse_20241212</t>
+  </si>
+  <si>
+    <t>下载数据+自动定义+人工定义，如果有定义出来肝星状细胞和巨噬细胞的话，就看下相关基因的表达量（featureplot）</t>
+  </si>
+  <si>
+    <t>CQT2024070101-S007</t>
+  </si>
+  <si>
+    <t>基于CQT2024070101-S006分期下执行的6个样本整合的结果，根据老师提供的marker出个气泡图+小提琴图。</t>
+  </si>
+  <si>
+    <t>CQT2023111808-S012</t>
+  </si>
+  <si>
+    <t>需求1：S011中；中性粒的拟时序分析中，将左下角，NGP+NEU较为集中的位置作为起点。然后GZ.heatmap_top500_smoothed_dynamicGenes图只展示top50就好了。同时也需要挑出TF进行类似的热图绘制
+需求2：Mac亚群中的F10+Mac，需要出 D2 vs Health/D7vs Health的火山图。 
+需求3：绘制一下NEU亚群中Saa3/Cxcl3。mac亚群中 Lcn2/Acod1/Chil3基因的umap分布热图和小提琴图。 小提琴图横坐标是亚群，纵坐标是表达水平，同时展示三个组。  每个基因单画。</t>
   </si>
 </sst>
 </file>
@@ -1666,10 +1686,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:E56"/>
+  <dimension ref="A1:E59"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A37" workbookViewId="0">
-      <selection activeCell="B30" sqref="B30"/>
+      <selection activeCell="A58" sqref="A58"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="4"/>
@@ -2545,7 +2565,7 @@
         <v>45632</v>
       </c>
       <c r="E52" s="3" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
     </row>
     <row r="53" ht="14.25" spans="1:5">
@@ -2553,7 +2573,7 @@
         <v>5</v>
       </c>
       <c r="B53" s="1" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="C53" s="1" t="s">
         <v>105</v>
@@ -2562,7 +2582,7 @@
         <v>45635</v>
       </c>
       <c r="E53" s="3" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
     </row>
     <row r="54" ht="14.25" spans="1:5">
@@ -2570,7 +2590,7 @@
         <v>5</v>
       </c>
       <c r="B54" s="1" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="C54" s="1" t="s">
         <v>18</v>
@@ -2579,7 +2599,7 @@
         <v>45635</v>
       </c>
       <c r="E54" s="3" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
     </row>
     <row r="55" ht="14.25" spans="1:5">
@@ -2587,16 +2607,16 @@
         <v>5</v>
       </c>
       <c r="B55" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="C55" s="1" t="s">
         <v>134</v>
-      </c>
-      <c r="C55" s="1" t="s">
-        <v>135</v>
       </c>
       <c r="D55" s="2">
         <v>45636</v>
       </c>
       <c r="E55" s="3" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
     </row>
     <row r="56" ht="14.25" spans="1:5">
@@ -2604,7 +2624,7 @@
         <v>5</v>
       </c>
       <c r="B56" s="1" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="C56" s="1" t="s">
         <v>96</v>
@@ -2613,7 +2633,55 @@
         <v>45637</v>
       </c>
       <c r="E56" s="3" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="57" ht="14.25" spans="1:5">
+      <c r="A57" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="B57" s="1" t="s">
         <v>138</v>
+      </c>
+      <c r="C57" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="D57" s="2">
+        <v>45642</v>
+      </c>
+      <c r="E57" s="3" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="58" ht="14.25" spans="1:5">
+      <c r="A58" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="B58" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="C58" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="D58" s="2">
+        <v>45643</v>
+      </c>
+      <c r="E58" s="3" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="59" spans="2:5">
+      <c r="B59" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="C59" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="D59" s="2">
+        <v>45645</v>
+      </c>
+      <c r="E59" s="3" t="s">
+        <v>144</v>
       </c>
     </row>
   </sheetData>

--- a/数据处理清单.xlsx
+++ b/数据处理清单.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="29010" windowHeight="13185"/>
+    <workbookView windowWidth="28800" windowHeight="12255"/>
   </bookViews>
   <sheets>
     <sheet name="2024" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="230" uniqueCount="145">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="244" uniqueCount="154">
   <si>
     <t>完成情况</t>
   </si>
@@ -470,6 +470,11 @@
     <t>/cqproj22/Project/SC_CQT2024070101-S006_human_20241204</t>
   </si>
   <si>
+    <t>6个样本（客户之前提供的3个文献中的数据+3个司内测序的数据）进行标准分析，自动定义，具体样本明细见信息搜集表。
+注：3个文献中的数据之前有提供过，F003分期下有用到。
+       3个司内测序的数据分别来自F002、F003、F004</t>
+  </si>
+  <si>
     <t>CQT2024070701-S002</t>
   </si>
   <si>
@@ -523,6 +528,48 @@
     <t>需求1：S011中；中性粒的拟时序分析中，将左下角，NGP+NEU较为集中的位置作为起点。然后GZ.heatmap_top500_smoothed_dynamicGenes图只展示top50就好了。同时也需要挑出TF进行类似的热图绘制
 需求2：Mac亚群中的F10+Mac，需要出 D2 vs Health/D7vs Health的火山图。 
 需求3：绘制一下NEU亚群中Saa3/Cxcl3。mac亚群中 Lcn2/Acod1/Chil3基因的umap分布热图和小提琴图。 小提琴图横坐标是亚群，纵坐标是表达水平，同时展示三个组。  每个基因单画。</t>
+  </si>
+  <si>
+    <t>CQT2024091701-S003</t>
+  </si>
+  <si>
+    <t>按附件要求重新注释和分群</t>
+  </si>
+  <si>
+    <t>CQT2024070701-S004</t>
+  </si>
+  <si>
+    <t>1. CD8T/B/DC，三类细胞根据附件提供marker进行亚群定义，若成功定义，请进行亚群标准分析，包括组间差异分析（仍然难以定义，已反馈运营）
+2. 细胞大群进行细胞通讯分析，要进行组间差异分析，包括富集分析等。老师目的是比较两组中，不同细胞之间的通讯差异（比如B细胞与DC细胞的通讯在实验组和对照组中的差异），辛苦提供相关结果
+3.1 UMAP图中，上皮细胞内部有一些CD8T，提取这些CD8T细胞进行组间差异分析，例如差异基因列表，富集分析结果，分开上下调去富集
+3.2.1. UMAP图中，上皮细胞内部有一些CD8T，提取这些CD8T细胞与上皮细胞进行差异分析（差异基因列表和富集分析，分开上下调去富集），分开样本进行分析。
+3.2.2. 得到2.1.分样本的结果之后，再进行比较：对照组的CD8T细胞与上皮的差异基因列表1，实验组的CD8T细胞与上皮的差异基因列表2，取两个差异基因列表变化趋势不一样的基因（需要提供这个文件）去做富集分析；
+若基因1在差异基因列表2中，但不在差异基因列表1中，进行富集分析；
+若基因1在差异基因列表1中，但不在差异基因列表2中，进行富集分析。
+若差异基因数量太少不足以分析，可以在输出的文件结果中说明即可
+20241224经线下与叶婷沟通确认：
+针对第一点亚群分析，因为定义不成功，需要进行如下分析：
+1. 用高表达top1基因给亚群命名，如B细胞cluster0的top1是Cd52，则命名Cd52_B。Cd52_DC（DC细胞），Cd52_CD8T（CD8T细胞），请输出命名前后对应的cluster，比如B细胞cluster0是Cd52_B
+（1）B细胞分4个亚群：cluster0，1+2+5合并，3，4。
+（2） DC细胞2个亚群，CD8T有10个亚群，按照cluster的结果，无需额外的合并
+（3）亚群定义分析后（输出亚群标准分析的结果），再进行组间差异分析</t>
+  </si>
+  <si>
+    <t>CQT2024070306-S005</t>
+  </si>
+  <si>
+    <t>1. 根据给出的GO&amp;KEGG terms（见excel表《Collagen-printed vs Matrigel casted-GO&amp;KEGG Term》）分6类群细胞，做三组（Collagen-printed、Collagen-casted、Matrigel casted）之间的gsva分析；
+2. 根据给出的excel表《Collagen-printed vs Matrigel casted-GO&amp;KEGG Term》，做这两组之间比较的气泡图，一种细胞做一幅图，term只有1个或2个的可不用做；
+3. 根据给出的excel表《关键基因》，做基因表达分布的UMAP图，详见附件；
+4. 根据给出的excel表《关键基因》，做每个基因在六类细胞里的表达量的小提琴图，每一类有三组之间的比较，详见附件；
+5. 做拟时序分析的UMAP图，详见附件；
+6. 根据之前给出的基因，做定义细胞的基因图，气泡图形式详见附件。</t>
+  </si>
+  <si>
+    <t>/cqproj22/Project/C4_CQT2024091910-F001_mouse_reQuantify_20241227</t>
+  </si>
+  <si>
+    <t>用新版dnbc4tools (V2.1.3)重跑定量(/cqproj51/Project/C4_CQT2024091910-F001_mouse_2024-10-08/)，跑STAR提取未比对的序列进行BLAST</t>
   </si>
 </sst>
 </file>
@@ -1686,10 +1733,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:E59"/>
+  <dimension ref="A1:E63"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A37" workbookViewId="0">
-      <selection activeCell="A58" sqref="A58"/>
+    <sheetView tabSelected="1" topLeftCell="A49" workbookViewId="0">
+      <selection activeCell="B64" sqref="B64"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="4"/>
@@ -2565,7 +2612,7 @@
         <v>45632</v>
       </c>
       <c r="E52" s="3" t="s">
-        <v>126</v>
+        <v>129</v>
       </c>
     </row>
     <row r="53" ht="14.25" spans="1:5">
@@ -2573,7 +2620,7 @@
         <v>5</v>
       </c>
       <c r="B53" s="1" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="C53" s="1" t="s">
         <v>105</v>
@@ -2582,7 +2629,7 @@
         <v>45635</v>
       </c>
       <c r="E53" s="3" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
     </row>
     <row r="54" ht="14.25" spans="1:5">
@@ -2590,7 +2637,7 @@
         <v>5</v>
       </c>
       <c r="B54" s="1" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="C54" s="1" t="s">
         <v>18</v>
@@ -2599,7 +2646,7 @@
         <v>45635</v>
       </c>
       <c r="E54" s="3" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
     </row>
     <row r="55" ht="14.25" spans="1:5">
@@ -2607,16 +2654,16 @@
         <v>5</v>
       </c>
       <c r="B55" s="1" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="C55" s="1" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="D55" s="2">
         <v>45636</v>
       </c>
       <c r="E55" s="3" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
     </row>
     <row r="56" ht="14.25" spans="1:5">
@@ -2624,7 +2671,7 @@
         <v>5</v>
       </c>
       <c r="B56" s="1" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="C56" s="1" t="s">
         <v>96</v>
@@ -2633,7 +2680,7 @@
         <v>45637</v>
       </c>
       <c r="E56" s="3" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
     </row>
     <row r="57" ht="14.25" spans="1:5">
@@ -2641,16 +2688,16 @@
         <v>5</v>
       </c>
       <c r="B57" s="1" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="C57" s="1" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="D57" s="2">
         <v>45642</v>
       </c>
       <c r="E57" s="3" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
     </row>
     <row r="58" ht="14.25" spans="1:5">
@@ -2658,7 +2705,7 @@
         <v>5</v>
       </c>
       <c r="B58" s="1" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="C58" s="1" t="s">
         <v>128</v>
@@ -2667,12 +2714,15 @@
         <v>45643</v>
       </c>
       <c r="E58" s="3" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="59" spans="2:5">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="59" ht="14.25" spans="1:5">
+      <c r="A59" s="4" t="s">
+        <v>5</v>
+      </c>
       <c r="B59" s="1" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="C59" s="1" t="s">
         <v>33</v>
@@ -2681,7 +2731,63 @@
         <v>45645</v>
       </c>
       <c r="E59" s="3" t="s">
-        <v>144</v>
+        <v>145</v>
+      </c>
+    </row>
+    <row r="60" ht="14.25" spans="1:5">
+      <c r="A60" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="B60" s="1" t="s">
+        <v>146</v>
+      </c>
+      <c r="C60" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="D60" s="2">
+        <v>45650</v>
+      </c>
+      <c r="E60" s="3" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="61" spans="2:5">
+      <c r="B61" s="1" t="s">
+        <v>148</v>
+      </c>
+      <c r="C61" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="D61" s="2">
+        <v>45652</v>
+      </c>
+      <c r="E61" s="3" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="62" spans="2:5">
+      <c r="B62" s="1" t="s">
+        <v>150</v>
+      </c>
+      <c r="C62" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="D62" s="2">
+        <v>45653</v>
+      </c>
+      <c r="E62" s="3" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="63" spans="2:5">
+      <c r="B63" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="C63" s="1" t="s">
+        <v>152</v>
+      </c>
+      <c r="E63" s="3" t="s">
+        <v>153</v>
       </c>
     </row>
   </sheetData>

--- a/数据处理清单.xlsx
+++ b/数据处理清单.xlsx
@@ -4,10 +4,11 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28800" windowHeight="12255"/>
+    <workbookView windowWidth="28800" windowHeight="12255" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="2024" sheetId="1" r:id="rId1"/>
+    <sheet name="2025" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -27,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="244" uniqueCount="154">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="283" uniqueCount="176">
   <si>
     <t>完成情况</t>
   </si>
@@ -571,6 +572,80 @@
   <si>
     <t>用新版dnbc4tools (V2.1.3)重跑定量(/cqproj51/Project/C4_CQT2024091910-F001_mouse_2024-10-08/)，跑STAR提取未比对的序列进行BLAST</t>
   </si>
+  <si>
+    <t>周期</t>
+  </si>
+  <si>
+    <t>样本数</t>
+  </si>
+  <si>
+    <t>组织类型</t>
+  </si>
+  <si>
+    <t>难度</t>
+  </si>
+  <si>
+    <t>CQT2024051201-S006</t>
+  </si>
+  <si>
+    <t>肺</t>
+  </si>
+  <si>
+    <t>普通</t>
+  </si>
+  <si>
+    <t>以S004的结果：
+需求1：aCap，gCap合并命名为endothelial。DC.1命名为DC，重新输出一张umap/tsne图/ 同时按照组别绘制组间细胞比例柱状图和箱型图
+需求2：绘制endothelial和 MP/IM/CM的配受体分析，需要组间差异互作分析
+需求3：绘制endothelial和neu的配受体分析，需要组间差异互作分析
+需求4：分析endothelial/CM/IM/MP/Neu的组间基因差异富集分析</t>
+  </si>
+  <si>
+    <t>CQT2023111808-S013</t>
+  </si>
+  <si>
+    <t>肾</t>
+  </si>
+  <si>
+    <t>对S008中巨噬细胞和中心粒细胞的亚群结果进行Monocle3的分析（改为RNA速率）</t>
+  </si>
+  <si>
+    <t>CQT2024121302-F001</t>
+  </si>
+  <si>
+    <t>/cqproj22/Project/SC_CQT2024121302-F001_mouse_20250102</t>
+  </si>
+  <si>
+    <t>血小板</t>
+  </si>
+  <si>
+    <t>小鼠，血小板，标准分析+自动定义（运营反馈先卡UMI100做定量，按照细胞数为4w卡一个近似的UMI，咨询运营是否需要调整细胞过滤阈值，反馈需要先提供一个记录当前每个细胞的基因数的表格，已提供，细胞过滤阈值中的low_nGene设为50）
+需求：目前定量结果不太满意，细胞数偏少，需要寻找合理的算法提高细胞数（人为确定细胞数担心客户那边不太满意），找黄曦咨询10X。</t>
+  </si>
+  <si>
+    <t>CQT2024091701-S005</t>
+  </si>
+  <si>
+    <t>结直肠</t>
+  </si>
+  <si>
+    <t>中等</t>
+  </si>
+  <si>
+    <t>1.提供Integrate_Subcluster中5类细胞 不同分组各自的GZ_cluster_UMAP、GZ_cluster_tSNE（S003中有进行分析5大类细胞的注释）；
+2.将Group_ratio_boxPlot的P值修改为保留小数点后3位；
+3.图片配色问题
+具体需求见附件</t>
+  </si>
+  <si>
+    <t>CQT2024040804-S012</t>
+  </si>
+  <si>
+    <t>脑</t>
+  </si>
+  <si>
+    <t>整合样本层面，大群定义的堆叠柱状图（1.3.2_groups_cells_ratio_stackPlot）、umap图（1.1_cluster_UMAP）、气泡图（S011需求1），同种细胞用同样的配色，例如小胶在三种图中都用同样的蓝色，输出图片和pdf，pdf的要求：adobe AI可编辑格式，里面的元件可编辑（S011的气泡图虽然是pdf格式，但包含的是图像，非矢量）（重新制作了S011里的气泡图，反馈运营）</t>
+  </si>
 </sst>
 </file>
 
@@ -583,7 +658,7 @@
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="176" formatCode="[$-409]yyyy\-mm\-dd;@"/>
   </numFmts>
-  <fonts count="21">
+  <fonts count="22">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -595,6 +670,12 @@
       <sz val="11"/>
       <color theme="1"/>
       <name val="Arial"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="宋体"/>
       <charset val="134"/>
     </font>
     <font>
@@ -1062,137 +1143,137 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="3" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="4" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="5" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="4" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="4" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="5" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1202,11 +1283,17 @@
     <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="49">
@@ -1735,8 +1822,8 @@
   <sheetPr/>
   <dimension ref="A1:E63"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A49" workbookViewId="0">
-      <selection activeCell="B64" sqref="B64"/>
+    <sheetView topLeftCell="A26" workbookViewId="0">
+      <selection activeCell="E63" sqref="E63"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="4"/>
@@ -1745,7 +1832,7 @@
     <col min="2" max="2" width="19.875" style="1" customWidth="1"/>
     <col min="3" max="3" width="55.5" style="1" customWidth="1"/>
     <col min="4" max="4" width="17" style="2" customWidth="1"/>
-    <col min="5" max="5" width="118" style="3" customWidth="1"/>
+    <col min="5" max="5" width="118" style="5" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5">
@@ -1766,7 +1853,7 @@
       </c>
     </row>
     <row r="2" ht="14.25" spans="1:5">
-      <c r="A2" s="4" t="s">
+      <c r="A2" s="3" t="s">
         <v>5</v>
       </c>
       <c r="B2" s="1" t="s">
@@ -1778,12 +1865,12 @@
       <c r="D2" s="2">
         <v>45574</v>
       </c>
-      <c r="E2" s="3" t="s">
+      <c r="E2" s="5" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="3" ht="14.25" spans="1:5">
-      <c r="A3" s="4" t="s">
+      <c r="A3" s="3" t="s">
         <v>5</v>
       </c>
       <c r="B3" s="1" t="s">
@@ -1795,12 +1882,12 @@
       <c r="D3" s="2">
         <v>45575</v>
       </c>
-      <c r="E3" s="3" t="s">
+      <c r="E3" s="5" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="4" ht="14.25" spans="1:5">
-      <c r="A4" s="4" t="s">
+      <c r="A4" s="3" t="s">
         <v>5</v>
       </c>
       <c r="B4" s="1" t="s">
@@ -1812,12 +1899,12 @@
       <c r="D4" s="2">
         <v>45576</v>
       </c>
-      <c r="E4" s="3" t="s">
+      <c r="E4" s="5" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="5" ht="14.25" spans="1:5">
-      <c r="A5" s="4" t="s">
+      <c r="A5" s="3" t="s">
         <v>5</v>
       </c>
       <c r="B5" s="1" t="s">
@@ -1827,12 +1914,12 @@
       <c r="D5" s="2">
         <v>45577</v>
       </c>
-      <c r="E5" s="3" t="s">
+      <c r="E5" s="5" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="6" ht="14.25" spans="1:5">
-      <c r="A6" s="4" t="s">
+      <c r="A6" s="3" t="s">
         <v>5</v>
       </c>
       <c r="B6" s="1" t="s">
@@ -1844,12 +1931,12 @@
       <c r="D6" s="2">
         <v>45579</v>
       </c>
-      <c r="E6" s="3" t="s">
+      <c r="E6" s="5" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="7" ht="14.25" spans="1:5">
-      <c r="A7" s="4" t="s">
+      <c r="A7" s="3" t="s">
         <v>5</v>
       </c>
       <c r="B7" s="1" t="s">
@@ -1861,12 +1948,12 @@
       <c r="D7" s="2">
         <v>45579</v>
       </c>
-      <c r="E7" s="3" t="s">
+      <c r="E7" s="5" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="8" ht="14.25" spans="1:5">
-      <c r="A8" s="4" t="s">
+      <c r="A8" s="3" t="s">
         <v>5</v>
       </c>
       <c r="B8" s="1" t="s">
@@ -1878,12 +1965,12 @@
       <c r="D8" s="2">
         <v>45579</v>
       </c>
-      <c r="E8" s="3" t="s">
+      <c r="E8" s="5" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="9" ht="14.25" spans="1:5">
-      <c r="A9" s="4" t="s">
+      <c r="A9" s="3" t="s">
         <v>5</v>
       </c>
       <c r="B9" s="1" t="s">
@@ -1892,12 +1979,12 @@
       <c r="D9" s="2">
         <v>45580</v>
       </c>
-      <c r="E9" s="3" t="s">
+      <c r="E9" s="5" t="s">
         <v>26</v>
       </c>
     </row>
     <row r="10" ht="14.25" spans="1:5">
-      <c r="A10" s="4" t="s">
+      <c r="A10" s="3" t="s">
         <v>5</v>
       </c>
       <c r="B10" s="1" t="s">
@@ -1906,12 +1993,12 @@
       <c r="D10" s="2">
         <v>45581</v>
       </c>
-      <c r="E10" s="3" t="s">
+      <c r="E10" s="5" t="s">
         <v>28</v>
       </c>
     </row>
     <row r="11" ht="14.25" spans="1:5">
-      <c r="A11" s="4" t="s">
+      <c r="A11" s="3" t="s">
         <v>5</v>
       </c>
       <c r="B11" s="1" t="s">
@@ -1923,12 +2010,12 @@
       <c r="D11" s="2">
         <v>45581</v>
       </c>
-      <c r="E11" s="3" t="s">
+      <c r="E11" s="5" t="s">
         <v>31</v>
       </c>
     </row>
     <row r="12" ht="14.25" spans="1:5">
-      <c r="A12" s="4" t="s">
+      <c r="A12" s="3" t="s">
         <v>5</v>
       </c>
       <c r="B12" s="1" t="s">
@@ -1940,12 +2027,12 @@
       <c r="D12" s="2">
         <v>45582</v>
       </c>
-      <c r="E12" s="3" t="s">
+      <c r="E12" s="5" t="s">
         <v>34</v>
       </c>
     </row>
     <row r="13" ht="14.25" spans="1:5">
-      <c r="A13" s="4" t="s">
+      <c r="A13" s="3" t="s">
         <v>5</v>
       </c>
       <c r="B13" s="1" t="s">
@@ -1957,12 +2044,12 @@
       <c r="D13" s="2">
         <v>45582</v>
       </c>
-      <c r="E13" s="3" t="s">
+      <c r="E13" s="5" t="s">
         <v>37</v>
       </c>
     </row>
     <row r="14" ht="14.25" spans="1:5">
-      <c r="A14" s="4" t="s">
+      <c r="A14" s="3" t="s">
         <v>5</v>
       </c>
       <c r="B14" s="1" t="s">
@@ -1974,12 +2061,12 @@
       <c r="D14" s="2">
         <v>45583</v>
       </c>
-      <c r="E14" s="3" t="s">
+      <c r="E14" s="5" t="s">
         <v>38</v>
       </c>
     </row>
     <row r="15" ht="14.25" spans="1:5">
-      <c r="A15" s="4" t="s">
+      <c r="A15" s="3" t="s">
         <v>5</v>
       </c>
       <c r="B15" s="1" t="s">
@@ -1991,12 +2078,12 @@
       <c r="D15" s="2">
         <v>45583</v>
       </c>
-      <c r="E15" s="3" t="s">
+      <c r="E15" s="5" t="s">
         <v>41</v>
       </c>
     </row>
     <row r="16" ht="14.25" spans="1:5">
-      <c r="A16" s="4" t="s">
+      <c r="A16" s="3" t="s">
         <v>5</v>
       </c>
       <c r="B16" s="1" t="s">
@@ -2008,12 +2095,12 @@
       <c r="D16" s="2">
         <v>45583</v>
       </c>
-      <c r="E16" s="3" t="s">
+      <c r="E16" s="5" t="s">
         <v>44</v>
       </c>
     </row>
     <row r="17" ht="14.25" spans="1:5">
-      <c r="A17" s="4" t="s">
+      <c r="A17" s="3" t="s">
         <v>5</v>
       </c>
       <c r="B17" s="1" t="s">
@@ -2025,12 +2112,12 @@
       <c r="D17" s="2">
         <v>45588</v>
       </c>
-      <c r="E17" s="3" t="s">
+      <c r="E17" s="5" t="s">
         <v>47</v>
       </c>
     </row>
     <row r="18" ht="14.25" spans="1:5">
-      <c r="A18" s="4" t="s">
+      <c r="A18" s="3" t="s">
         <v>5</v>
       </c>
       <c r="B18" s="1" t="s">
@@ -2039,12 +2126,12 @@
       <c r="D18" s="2">
         <v>45588</v>
       </c>
-      <c r="E18" s="3" t="s">
+      <c r="E18" s="5" t="s">
         <v>49</v>
       </c>
     </row>
     <row r="19" ht="14.25" spans="1:5">
-      <c r="A19" s="4" t="s">
+      <c r="A19" s="3" t="s">
         <v>5</v>
       </c>
       <c r="B19" s="1" t="s">
@@ -2053,12 +2140,12 @@
       <c r="D19" s="2">
         <v>45588</v>
       </c>
-      <c r="E19" s="3" t="s">
+      <c r="E19" s="5" t="s">
         <v>51</v>
       </c>
     </row>
     <row r="20" ht="14.25" spans="1:5">
-      <c r="A20" s="4" t="s">
+      <c r="A20" s="3" t="s">
         <v>5</v>
       </c>
       <c r="B20" s="1" t="s">
@@ -2070,12 +2157,12 @@
       <c r="D20" s="2">
         <v>45588</v>
       </c>
-      <c r="E20" s="3" t="s">
+      <c r="E20" s="5" t="s">
         <v>54</v>
       </c>
     </row>
     <row r="21" ht="14.25" spans="1:5">
-      <c r="A21" s="4" t="s">
+      <c r="A21" s="3" t="s">
         <v>5</v>
       </c>
       <c r="B21" s="1" t="s">
@@ -2087,12 +2174,12 @@
       <c r="D21" s="2">
         <v>45594</v>
       </c>
-      <c r="E21" s="3" t="s">
+      <c r="E21" s="5" t="s">
         <v>56</v>
       </c>
     </row>
     <row r="22" ht="14.25" spans="1:5">
-      <c r="A22" s="4" t="s">
+      <c r="A22" s="3" t="s">
         <v>5</v>
       </c>
       <c r="B22" s="1" t="s">
@@ -2101,12 +2188,12 @@
       <c r="D22" s="2">
         <v>45595</v>
       </c>
-      <c r="E22" s="3" t="s">
+      <c r="E22" s="5" t="s">
         <v>58</v>
       </c>
     </row>
     <row r="23" ht="14.25" spans="1:5">
-      <c r="A23" s="4" t="s">
+      <c r="A23" s="3" t="s">
         <v>5</v>
       </c>
       <c r="B23" s="1" t="s">
@@ -2118,12 +2205,12 @@
       <c r="D23" s="2">
         <v>45595</v>
       </c>
-      <c r="E23" s="3" t="s">
+      <c r="E23" s="5" t="s">
         <v>60</v>
       </c>
     </row>
     <row r="24" ht="14.25" spans="1:5">
-      <c r="A24" s="4" t="s">
+      <c r="A24" s="3" t="s">
         <v>5</v>
       </c>
       <c r="B24" s="1" t="s">
@@ -2135,12 +2222,12 @@
       <c r="D24" s="2">
         <v>45596</v>
       </c>
-      <c r="E24" s="3" t="s">
+      <c r="E24" s="5" t="s">
         <v>63</v>
       </c>
     </row>
     <row r="25" ht="14.25" spans="1:5">
-      <c r="A25" s="4" t="s">
+      <c r="A25" s="3" t="s">
         <v>5</v>
       </c>
       <c r="B25" s="1" t="s">
@@ -2152,12 +2239,12 @@
       <c r="D25" s="2">
         <v>45597</v>
       </c>
-      <c r="E25" s="3" t="s">
+      <c r="E25" s="5" t="s">
         <v>65</v>
       </c>
     </row>
     <row r="26" ht="14.25" spans="1:5">
-      <c r="A26" s="4" t="s">
+      <c r="A26" s="3" t="s">
         <v>5</v>
       </c>
       <c r="B26" s="1" t="s">
@@ -2169,12 +2256,12 @@
       <c r="D26" s="2">
         <v>45597</v>
       </c>
-      <c r="E26" s="3" t="s">
+      <c r="E26" s="5" t="s">
         <v>67</v>
       </c>
     </row>
     <row r="27" ht="14.25" spans="1:5">
-      <c r="A27" s="4" t="s">
+      <c r="A27" s="3" t="s">
         <v>5</v>
       </c>
       <c r="B27" s="1" t="s">
@@ -2186,12 +2273,12 @@
       <c r="D27" s="2">
         <v>45597</v>
       </c>
-      <c r="E27" s="3" t="s">
+      <c r="E27" s="5" t="s">
         <v>70</v>
       </c>
     </row>
     <row r="28" ht="14.25" spans="1:5">
-      <c r="A28" s="4" t="s">
+      <c r="A28" s="3" t="s">
         <v>5</v>
       </c>
       <c r="B28" s="1" t="s">
@@ -2203,12 +2290,12 @@
       <c r="D28" s="2">
         <v>45600</v>
       </c>
-      <c r="E28" s="3" t="s">
+      <c r="E28" s="5" t="s">
         <v>72</v>
       </c>
     </row>
     <row r="29" ht="14.25" spans="1:5">
-      <c r="A29" s="4" t="s">
+      <c r="A29" s="3" t="s">
         <v>5</v>
       </c>
       <c r="B29" s="1" t="s">
@@ -2220,12 +2307,12 @@
       <c r="D29" s="2">
         <v>45601</v>
       </c>
-      <c r="E29" s="3" t="s">
+      <c r="E29" s="5" t="s">
         <v>74</v>
       </c>
     </row>
     <row r="30" ht="14.25" spans="1:5">
-      <c r="A30" s="4" t="s">
+      <c r="A30" s="3" t="s">
         <v>5</v>
       </c>
       <c r="B30" s="1" t="s">
@@ -2237,12 +2324,12 @@
       <c r="D30" s="2">
         <v>45601</v>
       </c>
-      <c r="E30" s="3" t="s">
+      <c r="E30" s="5" t="s">
         <v>77</v>
       </c>
     </row>
     <row r="31" ht="14.25" spans="1:5">
-      <c r="A31" s="4" t="s">
+      <c r="A31" s="3" t="s">
         <v>5</v>
       </c>
       <c r="B31" s="1" t="s">
@@ -2254,12 +2341,12 @@
       <c r="D31" s="2">
         <v>45602</v>
       </c>
-      <c r="E31" s="3" t="s">
+      <c r="E31" s="5" t="s">
         <v>80</v>
       </c>
     </row>
     <row r="32" ht="14.25" spans="1:5">
-      <c r="A32" s="4" t="s">
+      <c r="A32" s="3" t="s">
         <v>5</v>
       </c>
       <c r="B32" s="1" t="s">
@@ -2271,12 +2358,12 @@
       <c r="D32" s="2">
         <v>45602</v>
       </c>
-      <c r="E32" s="3" t="s">
+      <c r="E32" s="5" t="s">
         <v>83</v>
       </c>
     </row>
     <row r="33" ht="14.25" spans="1:5">
-      <c r="A33" s="4" t="s">
+      <c r="A33" s="3" t="s">
         <v>5</v>
       </c>
       <c r="B33" s="1" t="s">
@@ -2288,12 +2375,12 @@
       <c r="D33" s="2">
         <v>45603</v>
       </c>
-      <c r="E33" s="3" t="s">
+      <c r="E33" s="5" t="s">
         <v>85</v>
       </c>
     </row>
     <row r="34" ht="14.25" spans="1:5">
-      <c r="A34" s="4" t="s">
+      <c r="A34" s="3" t="s">
         <v>5</v>
       </c>
       <c r="B34" s="1" t="s">
@@ -2305,12 +2392,12 @@
       <c r="D34" s="2">
         <v>45603</v>
       </c>
-      <c r="E34" s="3" t="s">
+      <c r="E34" s="5" t="s">
         <v>87</v>
       </c>
     </row>
     <row r="35" ht="14.25" spans="1:5">
-      <c r="A35" s="4" t="s">
+      <c r="A35" s="3" t="s">
         <v>5</v>
       </c>
       <c r="B35" s="1" t="s">
@@ -2322,12 +2409,12 @@
       <c r="D35" s="2">
         <v>45604</v>
       </c>
-      <c r="E35" s="3" t="s">
+      <c r="E35" s="5" t="s">
         <v>89</v>
       </c>
     </row>
     <row r="36" ht="14.25" spans="1:5">
-      <c r="A36" s="4" t="s">
+      <c r="A36" s="3" t="s">
         <v>5</v>
       </c>
       <c r="B36" s="1" t="s">
@@ -2339,12 +2426,12 @@
       <c r="D36" s="2">
         <v>45607</v>
       </c>
-      <c r="E36" s="3" t="s">
+      <c r="E36" s="5" t="s">
         <v>92</v>
       </c>
     </row>
     <row r="37" ht="14.25" spans="1:5">
-      <c r="A37" s="4" t="s">
+      <c r="A37" s="3" t="s">
         <v>5</v>
       </c>
       <c r="B37" s="1" t="s">
@@ -2356,12 +2443,12 @@
       <c r="D37" s="2">
         <v>45608</v>
       </c>
-      <c r="E37" s="3" t="s">
+      <c r="E37" s="5" t="s">
         <v>94</v>
       </c>
     </row>
     <row r="38" ht="14.25" spans="1:5">
-      <c r="A38" s="4" t="s">
+      <c r="A38" s="3" t="s">
         <v>5</v>
       </c>
       <c r="B38" s="1" t="s">
@@ -2373,12 +2460,12 @@
       <c r="D38" s="2">
         <v>45609</v>
       </c>
-      <c r="E38" s="3" t="s">
+      <c r="E38" s="5" t="s">
         <v>97</v>
       </c>
     </row>
     <row r="39" ht="14.25" spans="1:5">
-      <c r="A39" s="4" t="s">
+      <c r="A39" s="3" t="s">
         <v>5</v>
       </c>
       <c r="B39" s="1" t="s">
@@ -2390,12 +2477,12 @@
       <c r="D39" s="2">
         <v>45610</v>
       </c>
-      <c r="E39" s="3" t="s">
+      <c r="E39" s="5" t="s">
         <v>99</v>
       </c>
     </row>
     <row r="40" ht="14.25" spans="1:5">
-      <c r="A40" s="4" t="s">
+      <c r="A40" s="3" t="s">
         <v>5</v>
       </c>
       <c r="B40" s="1" t="s">
@@ -2407,12 +2494,12 @@
       <c r="D40" s="2">
         <v>45611</v>
       </c>
-      <c r="E40" s="3" t="s">
+      <c r="E40" s="5" t="s">
         <v>101</v>
       </c>
     </row>
     <row r="41" ht="14.25" spans="1:5">
-      <c r="A41" s="4" t="s">
+      <c r="A41" s="3" t="s">
         <v>5</v>
       </c>
       <c r="B41" s="1" t="s">
@@ -2424,12 +2511,12 @@
       <c r="D41" s="2">
         <v>45617</v>
       </c>
-      <c r="E41" s="3" t="s">
+      <c r="E41" s="5" t="s">
         <v>103</v>
       </c>
     </row>
     <row r="42" ht="14.25" spans="1:5">
-      <c r="A42" s="4" t="s">
+      <c r="A42" s="3" t="s">
         <v>5</v>
       </c>
       <c r="B42" s="1" t="s">
@@ -2441,12 +2528,12 @@
       <c r="D42" s="2">
         <v>45617</v>
       </c>
-      <c r="E42" s="3" t="s">
+      <c r="E42" s="5" t="s">
         <v>31</v>
       </c>
     </row>
     <row r="43" ht="14.25" spans="1:5">
-      <c r="A43" s="4" t="s">
+      <c r="A43" s="3" t="s">
         <v>5</v>
       </c>
       <c r="B43" s="1" t="s">
@@ -2458,12 +2545,12 @@
       <c r="D43" s="2">
         <v>45618</v>
       </c>
-      <c r="E43" s="3" t="s">
+      <c r="E43" s="5" t="s">
         <v>107</v>
       </c>
     </row>
     <row r="44" ht="14.25" spans="1:5">
-      <c r="A44" s="4" t="s">
+      <c r="A44" s="3" t="s">
         <v>5</v>
       </c>
       <c r="B44" s="1" t="s">
@@ -2475,12 +2562,12 @@
       <c r="D44" s="2">
         <v>45622</v>
       </c>
-      <c r="E44" s="3" t="s">
+      <c r="E44" s="5" t="s">
         <v>109</v>
       </c>
     </row>
     <row r="45" ht="14.25" spans="1:5">
-      <c r="A45" s="4" t="s">
+      <c r="A45" s="3" t="s">
         <v>5</v>
       </c>
       <c r="B45" s="1" t="s">
@@ -2492,12 +2579,12 @@
       <c r="D45" s="2">
         <v>45625</v>
       </c>
-      <c r="E45" s="3" t="s">
+      <c r="E45" s="5" t="s">
         <v>111</v>
       </c>
     </row>
     <row r="46" ht="14.25" spans="1:5">
-      <c r="A46" s="4" t="s">
+      <c r="A46" s="3" t="s">
         <v>5</v>
       </c>
       <c r="B46" s="1" t="s">
@@ -2509,12 +2596,12 @@
       <c r="D46" s="2">
         <v>45625</v>
       </c>
-      <c r="E46" s="3" t="s">
+      <c r="E46" s="5" t="s">
         <v>114</v>
       </c>
     </row>
     <row r="47" ht="14.25" spans="1:5">
-      <c r="A47" s="4" t="s">
+      <c r="A47" s="3" t="s">
         <v>5</v>
       </c>
       <c r="B47" s="1" t="s">
@@ -2526,12 +2613,12 @@
       <c r="D47" s="2">
         <v>45625</v>
       </c>
-      <c r="E47" s="3" t="s">
+      <c r="E47" s="5" t="s">
         <v>117</v>
       </c>
     </row>
     <row r="48" ht="14.25" spans="1:5">
-      <c r="A48" s="4" t="s">
+      <c r="A48" s="3" t="s">
         <v>5</v>
       </c>
       <c r="B48" s="1" t="s">
@@ -2543,12 +2630,12 @@
       <c r="D48" s="2">
         <v>45628</v>
       </c>
-      <c r="E48" s="3" t="s">
+      <c r="E48" s="5" t="s">
         <v>120</v>
       </c>
     </row>
     <row r="49" ht="14.25" spans="1:5">
-      <c r="A49" s="4" t="s">
+      <c r="A49" s="3" t="s">
         <v>5</v>
       </c>
       <c r="B49" s="1" t="s">
@@ -2560,12 +2647,12 @@
       <c r="D49" s="2">
         <v>45629</v>
       </c>
-      <c r="E49" s="3" t="s">
+      <c r="E49" s="5" t="s">
         <v>122</v>
       </c>
     </row>
     <row r="50" ht="14.25" spans="1:5">
-      <c r="A50" s="4" t="s">
+      <c r="A50" s="3" t="s">
         <v>5</v>
       </c>
       <c r="B50" s="1" t="s">
@@ -2577,12 +2664,12 @@
       <c r="D50" s="2">
         <v>45630</v>
       </c>
-      <c r="E50" s="3" t="s">
+      <c r="E50" s="5" t="s">
         <v>124</v>
       </c>
     </row>
     <row r="51" ht="14.25" spans="1:5">
-      <c r="A51" s="4" t="s">
+      <c r="A51" s="3" t="s">
         <v>5</v>
       </c>
       <c r="B51" s="1" t="s">
@@ -2594,12 +2681,12 @@
       <c r="D51" s="2">
         <v>45632</v>
       </c>
-      <c r="E51" s="3" t="s">
+      <c r="E51" s="5" t="s">
         <v>126</v>
       </c>
     </row>
     <row r="52" ht="14.25" spans="1:5">
-      <c r="A52" s="4" t="s">
+      <c r="A52" s="3" t="s">
         <v>5</v>
       </c>
       <c r="B52" s="1" t="s">
@@ -2611,12 +2698,12 @@
       <c r="D52" s="2">
         <v>45632</v>
       </c>
-      <c r="E52" s="3" t="s">
+      <c r="E52" s="5" t="s">
         <v>129</v>
       </c>
     </row>
     <row r="53" ht="14.25" spans="1:5">
-      <c r="A53" s="4" t="s">
+      <c r="A53" s="3" t="s">
         <v>5</v>
       </c>
       <c r="B53" s="1" t="s">
@@ -2628,12 +2715,12 @@
       <c r="D53" s="2">
         <v>45635</v>
       </c>
-      <c r="E53" s="3" t="s">
+      <c r="E53" s="5" t="s">
         <v>131</v>
       </c>
     </row>
     <row r="54" ht="14.25" spans="1:5">
-      <c r="A54" s="4" t="s">
+      <c r="A54" s="3" t="s">
         <v>5</v>
       </c>
       <c r="B54" s="1" t="s">
@@ -2645,12 +2732,12 @@
       <c r="D54" s="2">
         <v>45635</v>
       </c>
-      <c r="E54" s="3" t="s">
+      <c r="E54" s="5" t="s">
         <v>133</v>
       </c>
     </row>
     <row r="55" ht="14.25" spans="1:5">
-      <c r="A55" s="4" t="s">
+      <c r="A55" s="3" t="s">
         <v>5</v>
       </c>
       <c r="B55" s="1" t="s">
@@ -2662,12 +2749,12 @@
       <c r="D55" s="2">
         <v>45636</v>
       </c>
-      <c r="E55" s="3" t="s">
+      <c r="E55" s="5" t="s">
         <v>136</v>
       </c>
     </row>
     <row r="56" ht="14.25" spans="1:5">
-      <c r="A56" s="4" t="s">
+      <c r="A56" s="3" t="s">
         <v>5</v>
       </c>
       <c r="B56" s="1" t="s">
@@ -2679,12 +2766,12 @@
       <c r="D56" s="2">
         <v>45637</v>
       </c>
-      <c r="E56" s="3" t="s">
+      <c r="E56" s="5" t="s">
         <v>138</v>
       </c>
     </row>
     <row r="57" ht="14.25" spans="1:5">
-      <c r="A57" s="4" t="s">
+      <c r="A57" s="3" t="s">
         <v>5</v>
       </c>
       <c r="B57" s="1" t="s">
@@ -2696,12 +2783,12 @@
       <c r="D57" s="2">
         <v>45642</v>
       </c>
-      <c r="E57" s="3" t="s">
+      <c r="E57" s="5" t="s">
         <v>141</v>
       </c>
     </row>
     <row r="58" ht="14.25" spans="1:5">
-      <c r="A58" s="4" t="s">
+      <c r="A58" s="3" t="s">
         <v>5</v>
       </c>
       <c r="B58" s="1" t="s">
@@ -2713,12 +2800,12 @@
       <c r="D58" s="2">
         <v>45643</v>
       </c>
-      <c r="E58" s="3" t="s">
+      <c r="E58" s="5" t="s">
         <v>143</v>
       </c>
     </row>
     <row r="59" ht="14.25" spans="1:5">
-      <c r="A59" s="4" t="s">
+      <c r="A59" s="3" t="s">
         <v>5</v>
       </c>
       <c r="B59" s="1" t="s">
@@ -2730,12 +2817,12 @@
       <c r="D59" s="2">
         <v>45645</v>
       </c>
-      <c r="E59" s="3" t="s">
+      <c r="E59" s="5" t="s">
         <v>145</v>
       </c>
     </row>
     <row r="60" ht="14.25" spans="1:5">
-      <c r="A60" s="4" t="s">
+      <c r="A60" s="3" t="s">
         <v>5</v>
       </c>
       <c r="B60" s="1" t="s">
@@ -2747,11 +2834,14 @@
       <c r="D60" s="2">
         <v>45650</v>
       </c>
-      <c r="E60" s="3" t="s">
+      <c r="E60" s="5" t="s">
         <v>147</v>
       </c>
     </row>
-    <row r="61" spans="2:5">
+    <row r="61" ht="14.25" spans="1:5">
+      <c r="A61" s="3" t="s">
+        <v>5</v>
+      </c>
       <c r="B61" s="1" t="s">
         <v>148</v>
       </c>
@@ -2761,11 +2851,14 @@
       <c r="D61" s="2">
         <v>45652</v>
       </c>
-      <c r="E61" s="3" t="s">
+      <c r="E61" s="5" t="s">
         <v>149</v>
       </c>
     </row>
-    <row r="62" spans="2:5">
+    <row r="62" ht="14.25" spans="1:5">
+      <c r="A62" s="3" t="s">
+        <v>5</v>
+      </c>
       <c r="B62" s="1" t="s">
         <v>150</v>
       </c>
@@ -2775,19 +2868,215 @@
       <c r="D62" s="2">
         <v>45653</v>
       </c>
-      <c r="E62" s="3" t="s">
+      <c r="E62" s="5" t="s">
         <v>151</v>
       </c>
     </row>
-    <row r="63" spans="2:5">
+    <row r="63" ht="14.25" spans="1:5">
+      <c r="A63" s="3" t="s">
+        <v>5</v>
+      </c>
       <c r="B63" s="1" t="s">
         <v>35</v>
       </c>
       <c r="C63" s="1" t="s">
         <v>152</v>
       </c>
-      <c r="E63" s="3" t="s">
+      <c r="D63" s="2">
+        <v>45653</v>
+      </c>
+      <c r="E63" s="5" t="s">
         <v>153</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:I6"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I6" sqref="I6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="5"/>
+  <cols>
+    <col min="2" max="2" width="20.125" customWidth="1"/>
+    <col min="3" max="3" width="14.625" customWidth="1"/>
+    <col min="4" max="4" width="15.375" customWidth="1"/>
+    <col min="5" max="5" width="8" customWidth="1"/>
+    <col min="8" max="8" width="7.75" customWidth="1"/>
+    <col min="9" max="9" width="135.125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:9">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" t="s">
+        <v>154</v>
+      </c>
+      <c r="F1" t="s">
+        <v>155</v>
+      </c>
+      <c r="G1" t="s">
+        <v>156</v>
+      </c>
+      <c r="H1" t="s">
+        <v>157</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" ht="14.25" spans="1:9">
+      <c r="A2" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2" t="s">
+        <v>158</v>
+      </c>
+      <c r="C2" t="s">
+        <v>91</v>
+      </c>
+      <c r="D2" s="2">
+        <v>45663</v>
+      </c>
+      <c r="E2">
+        <v>4</v>
+      </c>
+      <c r="F2">
+        <v>9</v>
+      </c>
+      <c r="G2" t="s">
+        <v>159</v>
+      </c>
+      <c r="H2" t="s">
+        <v>160</v>
+      </c>
+      <c r="I2" s="5" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="3" ht="14.25" spans="1:9">
+      <c r="A3" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3" t="s">
+        <v>162</v>
+      </c>
+      <c r="C3" t="s">
+        <v>33</v>
+      </c>
+      <c r="D3" s="2">
+        <v>45664</v>
+      </c>
+      <c r="E3">
+        <v>3</v>
+      </c>
+      <c r="F3">
+        <v>2</v>
+      </c>
+      <c r="G3" t="s">
+        <v>163</v>
+      </c>
+      <c r="H3" t="s">
+        <v>160</v>
+      </c>
+      <c r="I3" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="4" spans="2:9">
+      <c r="B4" t="s">
+        <v>165</v>
+      </c>
+      <c r="C4" t="s">
+        <v>166</v>
+      </c>
+      <c r="D4" s="2">
+        <v>45666</v>
+      </c>
+      <c r="E4">
+        <v>3</v>
+      </c>
+      <c r="F4">
+        <v>2</v>
+      </c>
+      <c r="G4" t="s">
+        <v>167</v>
+      </c>
+      <c r="H4" t="s">
+        <v>160</v>
+      </c>
+      <c r="I4" s="6" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="5" spans="2:9">
+      <c r="B5" t="s">
+        <v>169</v>
+      </c>
+      <c r="C5" t="s">
+        <v>30</v>
+      </c>
+      <c r="D5" s="2">
+        <v>45666</v>
+      </c>
+      <c r="E5">
+        <v>2</v>
+      </c>
+      <c r="F5">
+        <v>9</v>
+      </c>
+      <c r="G5" s="4" t="s">
+        <v>170</v>
+      </c>
+      <c r="H5" t="s">
+        <v>171</v>
+      </c>
+      <c r="I5" s="6" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="6" spans="2:9">
+      <c r="B6" t="s">
+        <v>173</v>
+      </c>
+      <c r="C6" t="s">
+        <v>18</v>
+      </c>
+      <c r="D6" s="2">
+        <v>45667</v>
+      </c>
+      <c r="E6">
+        <v>2</v>
+      </c>
+      <c r="F6">
+        <v>3</v>
+      </c>
+      <c r="G6" t="s">
+        <v>174</v>
+      </c>
+      <c r="H6" t="s">
+        <v>171</v>
+      </c>
+      <c r="I6" t="s">
+        <v>175</v>
       </c>
     </row>
   </sheetData>

--- a/数据处理清单.xlsx
+++ b/数据处理清单.xlsx
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="283" uniqueCount="176">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="314" uniqueCount="189">
   <si>
     <t>完成情况</t>
   </si>
@@ -613,7 +613,7 @@
     <t>CQT2024121302-F001</t>
   </si>
   <si>
-    <t>/cqproj22/Project/SC_CQT2024121302-F001_mouse_20250102</t>
+    <t>/cqproj22/Project/SC_CQT2024121302-F001_mouse_20250108</t>
   </si>
   <si>
     <t>血小板</t>
@@ -645,6 +645,56 @@
   </si>
   <si>
     <t>整合样本层面，大群定义的堆叠柱状图（1.3.2_groups_cells_ratio_stackPlot）、umap图（1.1_cluster_UMAP）、气泡图（S011需求1），同种细胞用同样的配色，例如小胶在三种图中都用同样的蓝色，输出图片和pdf，pdf的要求：adobe AI可编辑格式，里面的元件可编辑（S011的气泡图虽然是pdf格式，但包含的是图像，非矢量）（重新制作了S011里的气泡图，反馈运营）</t>
+  </si>
+  <si>
+    <t>CQT2024040804-S013</t>
+  </si>
+  <si>
+    <t>客户需求：小胶的umap中样本shame改成浅灰色（附件图例颜色），重点是把颜色调得更适合看到Brain_T的。
+辛苦生信老师看下如何实现客户需求，比如把Brain_T的图层放在最上面（可能会盖住其他的样本展示）</t>
+  </si>
+  <si>
+    <t>CQT2024031312-F007</t>
+  </si>
+  <si>
+    <t>/cqproj22/Project/SC_CQT2024031312-F007_hsa_20240821</t>
+  </si>
+  <si>
+    <t>全血</t>
+  </si>
+  <si>
+    <t>1.重新提供分析报告
+2.提供RDS文件
+3.提供以下基因的气泡图和UMAP图：CD3D/CD3E/CD3G/CD4/FOXP3
+（企微交付运营）</t>
+  </si>
+  <si>
+    <t>CQT2024070701-S005</t>
+  </si>
+  <si>
+    <t>肠道</t>
+  </si>
+  <si>
+    <t>1. 附件中，一个EXCEL文件分别做一张kegg气泡图和柱状图，需求：每个图画20个通路，如果黄色/红色高亮的通路不足20条，则用Pvalue最显著的通路补齐到20条，黄色/红色高亮的通路的名称用红色，其余名称为黑色
+2. S004的细胞通讯分析，请输出类似刘艺老师（CQT2023061401-S009）的4个结果excel文件，附件图片中的四个excel文件。</t>
+  </si>
+  <si>
+    <t>CQT2024121302-S001</t>
+  </si>
+  <si>
+    <t>需求1： 按照样本， 分别绘制 基因数目和 UMI数的umap分布图
+需求2：绘制以下基因的cluster的气泡图： Nrgn/Pf4/Ppbp/F13a1/Ccl5/Ptgir/Itga2b/Mmd/Gp9/Grap2/Nfe2/Alox12/Gp1bb/Gng11/Ptprj/Selp
+需求3：辛苦张博看一下，在基因数目普遍不高的样本中 ，高变基因是否需要选择2000。（反馈运营两个样本基因数都不高）</t>
+  </si>
+  <si>
+    <t>CQT2024070101-S008</t>
+  </si>
+  <si>
+    <t>基于CQT2024070101-S006分期下执行的6个样本整合的结果
+1.根据客户提供的marker进行细胞定义，客户有对应上具体的cluster，按照客户提供的定义即可，比如，cluster2和cluster9定义为T细胞。
+2.做这些基因的featureplot图
+3.进行组间差异基因分析和组间差异基因富集通路分析，IPF_vs_HC（HC 是对照组）
+4. 按照客户marker表中要求出几个图：加细胞类型作为横坐标的细胞比例图和两个亚群（Monocyte/Macrophage；Epithelial cell）的重聚类出top50基因列表和气泡图。</t>
   </si>
 </sst>
 </file>
@@ -1823,7 +1873,7 @@
   <dimension ref="A1:E63"/>
   <sheetViews>
     <sheetView topLeftCell="A26" workbookViewId="0">
-      <selection activeCell="E63" sqref="E63"/>
+      <selection activeCell="C58" sqref="C58"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="4"/>
@@ -2898,13 +2948,13 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:I6"/>
+  <dimension ref="A1:I11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I6" sqref="I6"/>
+      <selection activeCell="H11" sqref="H11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <cols>
     <col min="2" max="2" width="20.125" customWidth="1"/>
     <col min="3" max="3" width="14.625" customWidth="1"/>
@@ -3001,7 +3051,10 @@
         <v>164</v>
       </c>
     </row>
-    <row r="4" spans="2:9">
+    <row r="4" ht="14.25" spans="1:9">
+      <c r="A4" s="3" t="s">
+        <v>5</v>
+      </c>
       <c r="B4" t="s">
         <v>165</v>
       </c>
@@ -3023,11 +3076,14 @@
       <c r="H4" t="s">
         <v>160</v>
       </c>
-      <c r="I4" s="6" t="s">
+      <c r="I4" s="5" t="s">
         <v>168</v>
       </c>
     </row>
-    <row r="5" spans="2:9">
+    <row r="5" ht="14.25" spans="1:9">
+      <c r="A5" s="3" t="s">
+        <v>5</v>
+      </c>
       <c r="B5" t="s">
         <v>169</v>
       </c>
@@ -3049,11 +3105,14 @@
       <c r="H5" t="s">
         <v>171</v>
       </c>
-      <c r="I5" s="6" t="s">
+      <c r="I5" s="5" t="s">
         <v>172</v>
       </c>
     </row>
-    <row r="6" spans="2:9">
+    <row r="6" ht="14.25" spans="1:9">
+      <c r="A6" s="3" t="s">
+        <v>5</v>
+      </c>
       <c r="B6" t="s">
         <v>173</v>
       </c>
@@ -3077,6 +3136,145 @@
       </c>
       <c r="I6" t="s">
         <v>175</v>
+      </c>
+    </row>
+    <row r="7" ht="14.25" spans="1:9">
+      <c r="A7" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B7" t="s">
+        <v>176</v>
+      </c>
+      <c r="C7" t="s">
+        <v>18</v>
+      </c>
+      <c r="D7" s="2">
+        <v>45671</v>
+      </c>
+      <c r="E7">
+        <v>2</v>
+      </c>
+      <c r="F7">
+        <v>3</v>
+      </c>
+      <c r="G7" t="s">
+        <v>174</v>
+      </c>
+      <c r="H7" t="s">
+        <v>171</v>
+      </c>
+      <c r="I7" s="5" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="8" ht="14.25" spans="1:9">
+      <c r="A8" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B8" t="s">
+        <v>178</v>
+      </c>
+      <c r="C8" t="s">
+        <v>179</v>
+      </c>
+      <c r="D8" s="2">
+        <v>45671</v>
+      </c>
+      <c r="E8">
+        <v>1</v>
+      </c>
+      <c r="F8">
+        <v>7</v>
+      </c>
+      <c r="G8" t="s">
+        <v>180</v>
+      </c>
+      <c r="H8" t="s">
+        <v>160</v>
+      </c>
+      <c r="I8" s="6" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="9" ht="14.25" spans="1:9">
+      <c r="A9" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B9" t="s">
+        <v>182</v>
+      </c>
+      <c r="C9" t="s">
+        <v>105</v>
+      </c>
+      <c r="D9" s="2">
+        <v>45673</v>
+      </c>
+      <c r="E9">
+        <v>2</v>
+      </c>
+      <c r="F9">
+        <v>2</v>
+      </c>
+      <c r="G9" t="s">
+        <v>183</v>
+      </c>
+      <c r="H9" t="s">
+        <v>171</v>
+      </c>
+      <c r="I9" s="6" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="10" spans="2:9">
+      <c r="B10" t="s">
+        <v>185</v>
+      </c>
+      <c r="C10" t="s">
+        <v>166</v>
+      </c>
+      <c r="D10" s="2">
+        <v>45674</v>
+      </c>
+      <c r="E10">
+        <v>2</v>
+      </c>
+      <c r="F10">
+        <v>2</v>
+      </c>
+      <c r="G10" t="s">
+        <v>167</v>
+      </c>
+      <c r="H10" t="s">
+        <v>160</v>
+      </c>
+      <c r="I10" s="6" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="11" spans="2:9">
+      <c r="B11" t="s">
+        <v>187</v>
+      </c>
+      <c r="C11" t="s">
+        <v>128</v>
+      </c>
+      <c r="D11" s="2">
+        <v>45674</v>
+      </c>
+      <c r="E11">
+        <v>2</v>
+      </c>
+      <c r="F11">
+        <v>2</v>
+      </c>
+      <c r="G11" t="s">
+        <v>183</v>
+      </c>
+      <c r="H11" t="s">
+        <v>160</v>
+      </c>
+      <c r="I11" s="6" t="s">
+        <v>188</v>
       </c>
     </row>
   </sheetData>

--- a/数据处理清单.xlsx
+++ b/数据处理清单.xlsx
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="314" uniqueCount="189">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="328" uniqueCount="194">
   <si>
     <t>完成情况</t>
   </si>
@@ -695,6 +695,37 @@
 2.做这些基因的featureplot图
 3.进行组间差异基因分析和组间差异基因富集通路分析，IPF_vs_HC（HC 是对照组）
 4. 按照客户marker表中要求出几个图：加细胞类型作为横坐标的细胞比例图和两个亚群（Monocyte/Macrophage；Epithelial cell）的重聚类出top50基因列表和气泡图。</t>
+  </si>
+  <si>
+    <t>CQT2024091701-S006</t>
+  </si>
+  <si>
+    <t>按附件要求做售后分析：
+1.请将Integrate_Subcluster\..cell\Anchors中GZ_sample_tSNE/ UMAP再用组别区分进行画图。
+2. S003 T cells 细胞定义：
+ 2.1. Cluster 6的差异表达基因存在大量rRNA 基因和线粒体基因，考虑删除该群。
+ 2.2. 请根据表格中的marker进行细胞定义、绘制UMAP TSNE图。
+ 2.3. 请根据以下基因绘制气泡图，坐标为定义的细胞类型（Cd4, Tcf7, Lef1, Aff3, Bcl6, Cd8b1, Cd8e, Gzmk, Gzmb, Gzma, Ifng, Mki67, Rora, Il7r, Il4ra）。
+ 2.4. 请对注释后的CD4  CD8 T细胞进行进一步降维分群。
+ 2.5. 请问S003中Integrate_Subcluster/T cells群的亚群能否定义出更多的Cluster。
+3. S003 Myeloid cells 细胞定义：
+ 3.1. 请根据表格中的marker进行细胞定义、绘制UMAP TSNE图。
+ 3.2. 请根据以下基因绘制气泡图，坐标为定义的细胞类型（Ms4a6c, Vegfa, Apoe, C1qa, Acp5, Csf1r, Fn1, Abl2, Sdc4, Ccl5, Prkch, Cblb, Gzmb, Tspan13, Irf4, Dido1, Clec9a, Wdfy4, Kit, Irf8, Slc15a4, Fpr1, Wfdc21, Mmp8, S100a9, S100a8）。
+4. S003 B cells 细胞定义：
+ 4.1. 请根据表格中的marker进行细胞定义、绘制UMAP TSNE图。
+ 4.2. 请根据以下基因绘制气泡图，坐标为定义的细胞类型（Itm2c, Jchain, Dusp5, Tnfrsf13b, Mzb1, Fcer2a, Bank1, Cd74, Lrmp, Cd19,  Il4ra, Aim2, Apoe）。
+5. 麻烦帮忙分析一下MAIT 细胞群、中性粒细胞的差异表达基因，富集通路。
+6. 做T细胞亚群和髓系细胞的crosstalk，筛选T细胞和髓系细胞的受体-配体对，主要想关注MAIT细胞与中性粒细胞之间是否存在特殊的受体-配体对。</t>
+  </si>
+  <si>
+    <t>CQT2024031312-S001</t>
+  </si>
+  <si>
+    <t>PBMC</t>
+  </si>
+  <si>
+    <t>需求1：对F007下的分析结果， 抽取其中的T细胞，包括CD4，CD8，Tcell gamma-delta即总T细胞进行亚群分析。亚群进行自动AI定义。
+需求2：查看Tregmarker CD3D/CD3E/CD3G/CD4/FOXP3的表达umap图。对其中的定义到的Treg细胞进行亚群分析，自动定义。Treg亚群需要做组间差异分析。 （技术反馈做多一个按照组别的细胞比例差异柱状图，亚群分析暂时不做）</t>
   </si>
 </sst>
 </file>
@@ -1872,8 +1903,8 @@
   <sheetPr/>
   <dimension ref="A1:E63"/>
   <sheetViews>
-    <sheetView topLeftCell="A26" workbookViewId="0">
-      <selection activeCell="C58" sqref="C58"/>
+    <sheetView topLeftCell="A21" workbookViewId="0">
+      <selection activeCell="B60" sqref="B60"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="4"/>
@@ -2948,10 +2979,10 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:I11"/>
+  <dimension ref="A1:I13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H11" sqref="H11"/>
+      <selection activeCell="A13" sqref="A13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -3225,7 +3256,10 @@
         <v>184</v>
       </c>
     </row>
-    <row r="10" spans="2:9">
+    <row r="10" ht="14.25" spans="1:9">
+      <c r="A10" s="3" t="s">
+        <v>5</v>
+      </c>
       <c r="B10" t="s">
         <v>185</v>
       </c>
@@ -3251,7 +3285,10 @@
         <v>186</v>
       </c>
     </row>
-    <row r="11" spans="2:9">
+    <row r="11" ht="14.25" spans="1:9">
+      <c r="A11" s="3" t="s">
+        <v>5</v>
+      </c>
       <c r="B11" t="s">
         <v>187</v>
       </c>
@@ -3275,6 +3312,64 @@
       </c>
       <c r="I11" s="6" t="s">
         <v>188</v>
+      </c>
+    </row>
+    <row r="12" ht="14.25" spans="1:9">
+      <c r="A12" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B12" t="s">
+        <v>189</v>
+      </c>
+      <c r="C12" t="s">
+        <v>30</v>
+      </c>
+      <c r="D12" s="2">
+        <v>45679</v>
+      </c>
+      <c r="E12">
+        <v>4</v>
+      </c>
+      <c r="F12">
+        <v>9</v>
+      </c>
+      <c r="G12" t="s">
+        <v>170</v>
+      </c>
+      <c r="H12" t="s">
+        <v>160</v>
+      </c>
+      <c r="I12" s="6" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="13" ht="14.25" spans="1:9">
+      <c r="A13" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B13" t="s">
+        <v>191</v>
+      </c>
+      <c r="C13" t="s">
+        <v>179</v>
+      </c>
+      <c r="D13" s="2">
+        <v>45681</v>
+      </c>
+      <c r="E13">
+        <v>2</v>
+      </c>
+      <c r="F13">
+        <v>7</v>
+      </c>
+      <c r="G13" t="s">
+        <v>192</v>
+      </c>
+      <c r="H13" t="s">
+        <v>160</v>
+      </c>
+      <c r="I13" s="6" t="s">
+        <v>193</v>
       </c>
     </row>
   </sheetData>

--- a/数据处理清单.xlsx
+++ b/数据处理清单.xlsx
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="328" uniqueCount="194">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="340" uniqueCount="202">
   <si>
     <t>完成情况</t>
   </si>
@@ -727,6 +727,35 @@
     <t>需求1：对F007下的分析结果， 抽取其中的T细胞，包括CD4，CD8，Tcell gamma-delta即总T细胞进行亚群分析。亚群进行自动AI定义。
 需求2：查看Tregmarker CD3D/CD3E/CD3G/CD4/FOXP3的表达umap图。对其中的定义到的Treg细胞进行亚群分析，自动定义。Treg亚群需要做组间差异分析。 （技术反馈做多一个按照组别的细胞比例差异柱状图，亚群分析暂时不做）</t>
   </si>
+  <si>
+    <t>CQT2024070306-S006</t>
+  </si>
+  <si>
+    <t>类器官</t>
+  </si>
+  <si>
+    <t>复杂</t>
+  </si>
+  <si>
+    <t>1.根据客户反馈的内容调整细胞定义结果，基于调整后的细胞定义结果进行差异富集分析，生成细胞定义marker的气泡图（详见附件-细胞定义调整）（重新按照旧版的参数生成CellMarker结果）；
+2.根据给出的GO&amp;KEGG terms（见excel表《Collagen-printed vs Matrigel casted-GO&amp;KEGG Term》）分5类群细胞，做三组（Collagen-printed、Collagen-casted、Matrigel casted）之间的gsva分析；
+3.根据给出的excel表《Collagen-printed vs Matrigel casted-GO&amp;KEGG Term》，做这两组之间比较的气泡图，一种细胞的UP表达和down表达各做一幅图。气泡大一点，以最大的气泡占一格高度左右为准；
+4.根据给出的excel表《重点关注基因》，做三组（Collagen-printed、Collagen-casted、Matrigel casted）基因表达分布的UMAP图，三组分开做；
+5.根据给出的excel表《重点关注基因》，做每个基因在5类细胞里的表达量的小提琴图，每一类有三组之间的比较，三组间颜色不同，细胞类群颜色可以相同；
+6.做RNA速率分析的UMAP图，详见附件。</t>
+  </si>
+  <si>
+    <t>CQT2024121012-F001</t>
+  </si>
+  <si>
+    <t>/cqproj22/Project/SC_CQT2024121012-F001_mouse_20250210</t>
+  </si>
+  <si>
+    <t>肿瘤组织</t>
+  </si>
+  <si>
+    <t>标准分析+自动定义</t>
+  </si>
 </sst>
 </file>
 
@@ -739,7 +768,7 @@
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="176" formatCode="[$-409]yyyy\-mm\-dd;@"/>
   </numFmts>
-  <fonts count="22">
+  <fonts count="23">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -757,6 +786,12 @@
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="宋体"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
       <charset val="134"/>
     </font>
     <font>
@@ -1224,137 +1259,137 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="3" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="4" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="4" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="5" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="3" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="4" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="4" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="5" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1370,8 +1405,14 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
@@ -1903,8 +1944,8 @@
   <sheetPr/>
   <dimension ref="A1:E63"/>
   <sheetViews>
-    <sheetView topLeftCell="A21" workbookViewId="0">
-      <selection activeCell="B60" sqref="B60"/>
+    <sheetView topLeftCell="A20" workbookViewId="0">
+      <selection activeCell="C59" sqref="C59"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="4"/>
@@ -1913,7 +1954,7 @@
     <col min="2" max="2" width="19.875" style="1" customWidth="1"/>
     <col min="3" max="3" width="55.5" style="1" customWidth="1"/>
     <col min="4" max="4" width="17" style="2" customWidth="1"/>
-    <col min="5" max="5" width="118" style="5" customWidth="1"/>
+    <col min="5" max="5" width="118" style="6" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5">
@@ -1946,7 +1987,7 @@
       <c r="D2" s="2">
         <v>45574</v>
       </c>
-      <c r="E2" s="5" t="s">
+      <c r="E2" s="6" t="s">
         <v>8</v>
       </c>
     </row>
@@ -1963,7 +2004,7 @@
       <c r="D3" s="2">
         <v>45575</v>
       </c>
-      <c r="E3" s="5" t="s">
+      <c r="E3" s="6" t="s">
         <v>11</v>
       </c>
     </row>
@@ -1980,7 +2021,7 @@
       <c r="D4" s="2">
         <v>45576</v>
       </c>
-      <c r="E4" s="5" t="s">
+      <c r="E4" s="6" t="s">
         <v>14</v>
       </c>
     </row>
@@ -1995,7 +2036,7 @@
       <c r="D5" s="2">
         <v>45577</v>
       </c>
-      <c r="E5" s="5" t="s">
+      <c r="E5" s="6" t="s">
         <v>16</v>
       </c>
     </row>
@@ -2012,7 +2053,7 @@
       <c r="D6" s="2">
         <v>45579</v>
       </c>
-      <c r="E6" s="5" t="s">
+      <c r="E6" s="6" t="s">
         <v>19</v>
       </c>
     </row>
@@ -2029,7 +2070,7 @@
       <c r="D7" s="2">
         <v>45579</v>
       </c>
-      <c r="E7" s="5" t="s">
+      <c r="E7" s="6" t="s">
         <v>22</v>
       </c>
     </row>
@@ -2046,7 +2087,7 @@
       <c r="D8" s="2">
         <v>45579</v>
       </c>
-      <c r="E8" s="5" t="s">
+      <c r="E8" s="6" t="s">
         <v>25</v>
       </c>
     </row>
@@ -2060,7 +2101,7 @@
       <c r="D9" s="2">
         <v>45580</v>
       </c>
-      <c r="E9" s="5" t="s">
+      <c r="E9" s="6" t="s">
         <v>26</v>
       </c>
     </row>
@@ -2074,7 +2115,7 @@
       <c r="D10" s="2">
         <v>45581</v>
       </c>
-      <c r="E10" s="5" t="s">
+      <c r="E10" s="6" t="s">
         <v>28</v>
       </c>
     </row>
@@ -2091,7 +2132,7 @@
       <c r="D11" s="2">
         <v>45581</v>
       </c>
-      <c r="E11" s="5" t="s">
+      <c r="E11" s="6" t="s">
         <v>31</v>
       </c>
     </row>
@@ -2108,7 +2149,7 @@
       <c r="D12" s="2">
         <v>45582</v>
       </c>
-      <c r="E12" s="5" t="s">
+      <c r="E12" s="6" t="s">
         <v>34</v>
       </c>
     </row>
@@ -2125,7 +2166,7 @@
       <c r="D13" s="2">
         <v>45582</v>
       </c>
-      <c r="E13" s="5" t="s">
+      <c r="E13" s="6" t="s">
         <v>37</v>
       </c>
     </row>
@@ -2142,7 +2183,7 @@
       <c r="D14" s="2">
         <v>45583</v>
       </c>
-      <c r="E14" s="5" t="s">
+      <c r="E14" s="6" t="s">
         <v>38</v>
       </c>
     </row>
@@ -2159,7 +2200,7 @@
       <c r="D15" s="2">
         <v>45583</v>
       </c>
-      <c r="E15" s="5" t="s">
+      <c r="E15" s="6" t="s">
         <v>41</v>
       </c>
     </row>
@@ -2176,7 +2217,7 @@
       <c r="D16" s="2">
         <v>45583</v>
       </c>
-      <c r="E16" s="5" t="s">
+      <c r="E16" s="6" t="s">
         <v>44</v>
       </c>
     </row>
@@ -2193,7 +2234,7 @@
       <c r="D17" s="2">
         <v>45588</v>
       </c>
-      <c r="E17" s="5" t="s">
+      <c r="E17" s="6" t="s">
         <v>47</v>
       </c>
     </row>
@@ -2207,7 +2248,7 @@
       <c r="D18" s="2">
         <v>45588</v>
       </c>
-      <c r="E18" s="5" t="s">
+      <c r="E18" s="6" t="s">
         <v>49</v>
       </c>
     </row>
@@ -2221,7 +2262,7 @@
       <c r="D19" s="2">
         <v>45588</v>
       </c>
-      <c r="E19" s="5" t="s">
+      <c r="E19" s="6" t="s">
         <v>51</v>
       </c>
     </row>
@@ -2238,7 +2279,7 @@
       <c r="D20" s="2">
         <v>45588</v>
       </c>
-      <c r="E20" s="5" t="s">
+      <c r="E20" s="6" t="s">
         <v>54</v>
       </c>
     </row>
@@ -2255,7 +2296,7 @@
       <c r="D21" s="2">
         <v>45594</v>
       </c>
-      <c r="E21" s="5" t="s">
+      <c r="E21" s="6" t="s">
         <v>56</v>
       </c>
     </row>
@@ -2269,7 +2310,7 @@
       <c r="D22" s="2">
         <v>45595</v>
       </c>
-      <c r="E22" s="5" t="s">
+      <c r="E22" s="6" t="s">
         <v>58</v>
       </c>
     </row>
@@ -2286,7 +2327,7 @@
       <c r="D23" s="2">
         <v>45595</v>
       </c>
-      <c r="E23" s="5" t="s">
+      <c r="E23" s="6" t="s">
         <v>60</v>
       </c>
     </row>
@@ -2303,7 +2344,7 @@
       <c r="D24" s="2">
         <v>45596</v>
       </c>
-      <c r="E24" s="5" t="s">
+      <c r="E24" s="6" t="s">
         <v>63</v>
       </c>
     </row>
@@ -2320,7 +2361,7 @@
       <c r="D25" s="2">
         <v>45597</v>
       </c>
-      <c r="E25" s="5" t="s">
+      <c r="E25" s="6" t="s">
         <v>65</v>
       </c>
     </row>
@@ -2337,7 +2378,7 @@
       <c r="D26" s="2">
         <v>45597</v>
       </c>
-      <c r="E26" s="5" t="s">
+      <c r="E26" s="6" t="s">
         <v>67</v>
       </c>
     </row>
@@ -2354,7 +2395,7 @@
       <c r="D27" s="2">
         <v>45597</v>
       </c>
-      <c r="E27" s="5" t="s">
+      <c r="E27" s="6" t="s">
         <v>70</v>
       </c>
     </row>
@@ -2371,7 +2412,7 @@
       <c r="D28" s="2">
         <v>45600</v>
       </c>
-      <c r="E28" s="5" t="s">
+      <c r="E28" s="6" t="s">
         <v>72</v>
       </c>
     </row>
@@ -2388,7 +2429,7 @@
       <c r="D29" s="2">
         <v>45601</v>
       </c>
-      <c r="E29" s="5" t="s">
+      <c r="E29" s="6" t="s">
         <v>74</v>
       </c>
     </row>
@@ -2405,7 +2446,7 @@
       <c r="D30" s="2">
         <v>45601</v>
       </c>
-      <c r="E30" s="5" t="s">
+      <c r="E30" s="6" t="s">
         <v>77</v>
       </c>
     </row>
@@ -2422,7 +2463,7 @@
       <c r="D31" s="2">
         <v>45602</v>
       </c>
-      <c r="E31" s="5" t="s">
+      <c r="E31" s="6" t="s">
         <v>80</v>
       </c>
     </row>
@@ -2439,7 +2480,7 @@
       <c r="D32" s="2">
         <v>45602</v>
       </c>
-      <c r="E32" s="5" t="s">
+      <c r="E32" s="6" t="s">
         <v>83</v>
       </c>
     </row>
@@ -2456,7 +2497,7 @@
       <c r="D33" s="2">
         <v>45603</v>
       </c>
-      <c r="E33" s="5" t="s">
+      <c r="E33" s="6" t="s">
         <v>85</v>
       </c>
     </row>
@@ -2473,7 +2514,7 @@
       <c r="D34" s="2">
         <v>45603</v>
       </c>
-      <c r="E34" s="5" t="s">
+      <c r="E34" s="6" t="s">
         <v>87</v>
       </c>
     </row>
@@ -2490,7 +2531,7 @@
       <c r="D35" s="2">
         <v>45604</v>
       </c>
-      <c r="E35" s="5" t="s">
+      <c r="E35" s="6" t="s">
         <v>89</v>
       </c>
     </row>
@@ -2507,7 +2548,7 @@
       <c r="D36" s="2">
         <v>45607</v>
       </c>
-      <c r="E36" s="5" t="s">
+      <c r="E36" s="6" t="s">
         <v>92</v>
       </c>
     </row>
@@ -2524,7 +2565,7 @@
       <c r="D37" s="2">
         <v>45608</v>
       </c>
-      <c r="E37" s="5" t="s">
+      <c r="E37" s="6" t="s">
         <v>94</v>
       </c>
     </row>
@@ -2541,7 +2582,7 @@
       <c r="D38" s="2">
         <v>45609</v>
       </c>
-      <c r="E38" s="5" t="s">
+      <c r="E38" s="6" t="s">
         <v>97</v>
       </c>
     </row>
@@ -2558,7 +2599,7 @@
       <c r="D39" s="2">
         <v>45610</v>
       </c>
-      <c r="E39" s="5" t="s">
+      <c r="E39" s="6" t="s">
         <v>99</v>
       </c>
     </row>
@@ -2575,7 +2616,7 @@
       <c r="D40" s="2">
         <v>45611</v>
       </c>
-      <c r="E40" s="5" t="s">
+      <c r="E40" s="6" t="s">
         <v>101</v>
       </c>
     </row>
@@ -2592,7 +2633,7 @@
       <c r="D41" s="2">
         <v>45617</v>
       </c>
-      <c r="E41" s="5" t="s">
+      <c r="E41" s="6" t="s">
         <v>103</v>
       </c>
     </row>
@@ -2609,7 +2650,7 @@
       <c r="D42" s="2">
         <v>45617</v>
       </c>
-      <c r="E42" s="5" t="s">
+      <c r="E42" s="6" t="s">
         <v>31</v>
       </c>
     </row>
@@ -2626,7 +2667,7 @@
       <c r="D43" s="2">
         <v>45618</v>
       </c>
-      <c r="E43" s="5" t="s">
+      <c r="E43" s="6" t="s">
         <v>107</v>
       </c>
     </row>
@@ -2643,7 +2684,7 @@
       <c r="D44" s="2">
         <v>45622</v>
       </c>
-      <c r="E44" s="5" t="s">
+      <c r="E44" s="6" t="s">
         <v>109</v>
       </c>
     </row>
@@ -2660,7 +2701,7 @@
       <c r="D45" s="2">
         <v>45625</v>
       </c>
-      <c r="E45" s="5" t="s">
+      <c r="E45" s="6" t="s">
         <v>111</v>
       </c>
     </row>
@@ -2677,7 +2718,7 @@
       <c r="D46" s="2">
         <v>45625</v>
       </c>
-      <c r="E46" s="5" t="s">
+      <c r="E46" s="6" t="s">
         <v>114</v>
       </c>
     </row>
@@ -2694,7 +2735,7 @@
       <c r="D47" s="2">
         <v>45625</v>
       </c>
-      <c r="E47" s="5" t="s">
+      <c r="E47" s="6" t="s">
         <v>117</v>
       </c>
     </row>
@@ -2711,7 +2752,7 @@
       <c r="D48" s="2">
         <v>45628</v>
       </c>
-      <c r="E48" s="5" t="s">
+      <c r="E48" s="6" t="s">
         <v>120</v>
       </c>
     </row>
@@ -2728,7 +2769,7 @@
       <c r="D49" s="2">
         <v>45629</v>
       </c>
-      <c r="E49" s="5" t="s">
+      <c r="E49" s="6" t="s">
         <v>122</v>
       </c>
     </row>
@@ -2745,7 +2786,7 @@
       <c r="D50" s="2">
         <v>45630</v>
       </c>
-      <c r="E50" s="5" t="s">
+      <c r="E50" s="6" t="s">
         <v>124</v>
       </c>
     </row>
@@ -2762,7 +2803,7 @@
       <c r="D51" s="2">
         <v>45632</v>
       </c>
-      <c r="E51" s="5" t="s">
+      <c r="E51" s="6" t="s">
         <v>126</v>
       </c>
     </row>
@@ -2779,7 +2820,7 @@
       <c r="D52" s="2">
         <v>45632</v>
       </c>
-      <c r="E52" s="5" t="s">
+      <c r="E52" s="6" t="s">
         <v>129</v>
       </c>
     </row>
@@ -2796,7 +2837,7 @@
       <c r="D53" s="2">
         <v>45635</v>
       </c>
-      <c r="E53" s="5" t="s">
+      <c r="E53" s="6" t="s">
         <v>131</v>
       </c>
     </row>
@@ -2813,7 +2854,7 @@
       <c r="D54" s="2">
         <v>45635</v>
       </c>
-      <c r="E54" s="5" t="s">
+      <c r="E54" s="6" t="s">
         <v>133</v>
       </c>
     </row>
@@ -2830,7 +2871,7 @@
       <c r="D55" s="2">
         <v>45636</v>
       </c>
-      <c r="E55" s="5" t="s">
+      <c r="E55" s="6" t="s">
         <v>136</v>
       </c>
     </row>
@@ -2847,7 +2888,7 @@
       <c r="D56" s="2">
         <v>45637</v>
       </c>
-      <c r="E56" s="5" t="s">
+      <c r="E56" s="6" t="s">
         <v>138</v>
       </c>
     </row>
@@ -2864,7 +2905,7 @@
       <c r="D57" s="2">
         <v>45642</v>
       </c>
-      <c r="E57" s="5" t="s">
+      <c r="E57" s="6" t="s">
         <v>141</v>
       </c>
     </row>
@@ -2881,7 +2922,7 @@
       <c r="D58" s="2">
         <v>45643</v>
       </c>
-      <c r="E58" s="5" t="s">
+      <c r="E58" s="6" t="s">
         <v>143</v>
       </c>
     </row>
@@ -2898,7 +2939,7 @@
       <c r="D59" s="2">
         <v>45645</v>
       </c>
-      <c r="E59" s="5" t="s">
+      <c r="E59" s="6" t="s">
         <v>145</v>
       </c>
     </row>
@@ -2915,7 +2956,7 @@
       <c r="D60" s="2">
         <v>45650</v>
       </c>
-      <c r="E60" s="5" t="s">
+      <c r="E60" s="6" t="s">
         <v>147</v>
       </c>
     </row>
@@ -2932,7 +2973,7 @@
       <c r="D61" s="2">
         <v>45652</v>
       </c>
-      <c r="E61" s="5" t="s">
+      <c r="E61" s="6" t="s">
         <v>149</v>
       </c>
     </row>
@@ -2949,7 +2990,7 @@
       <c r="D62" s="2">
         <v>45653</v>
       </c>
-      <c r="E62" s="5" t="s">
+      <c r="E62" s="6" t="s">
         <v>151</v>
       </c>
     </row>
@@ -2966,7 +3007,7 @@
       <c r="D63" s="2">
         <v>45653</v>
       </c>
-      <c r="E63" s="5" t="s">
+      <c r="E63" s="6" t="s">
         <v>153</v>
       </c>
     </row>
@@ -2979,10 +3020,10 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:I13"/>
+  <dimension ref="A1:I15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A13" sqref="A13"/>
+      <selection activeCell="I12" sqref="I12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -3049,7 +3090,7 @@
       <c r="H2" t="s">
         <v>160</v>
       </c>
-      <c r="I2" s="5" t="s">
+      <c r="I2" s="6" t="s">
         <v>161</v>
       </c>
     </row>
@@ -3107,7 +3148,7 @@
       <c r="H4" t="s">
         <v>160</v>
       </c>
-      <c r="I4" s="5" t="s">
+      <c r="I4" s="6" t="s">
         <v>168</v>
       </c>
     </row>
@@ -3136,7 +3177,7 @@
       <c r="H5" t="s">
         <v>171</v>
       </c>
-      <c r="I5" s="5" t="s">
+      <c r="I5" s="6" t="s">
         <v>172</v>
       </c>
     </row>
@@ -3194,7 +3235,7 @@
       <c r="H7" t="s">
         <v>171</v>
       </c>
-      <c r="I7" s="5" t="s">
+      <c r="I7" s="6" t="s">
         <v>177</v>
       </c>
     </row>
@@ -3314,7 +3355,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="12" ht="14.25" spans="1:9">
+    <row r="12" ht="256.5" spans="1:9">
       <c r="A12" s="3" t="s">
         <v>5</v>
       </c>
@@ -3339,7 +3380,7 @@
       <c r="H12" t="s">
         <v>160</v>
       </c>
-      <c r="I12" s="6" t="s">
+      <c r="I12" s="7" t="s">
         <v>190</v>
       </c>
     </row>
@@ -3370,6 +3411,64 @@
       </c>
       <c r="I13" s="6" t="s">
         <v>193</v>
+      </c>
+    </row>
+    <row r="14" ht="14.25" spans="1:9">
+      <c r="A14" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B14" t="s">
+        <v>194</v>
+      </c>
+      <c r="C14" t="s">
+        <v>13</v>
+      </c>
+      <c r="D14" s="2">
+        <v>45699</v>
+      </c>
+      <c r="E14">
+        <v>5</v>
+      </c>
+      <c r="F14">
+        <v>6</v>
+      </c>
+      <c r="G14" s="5" t="s">
+        <v>195</v>
+      </c>
+      <c r="H14" t="s">
+        <v>196</v>
+      </c>
+      <c r="I14" s="8" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="15" ht="14.25" spans="1:9">
+      <c r="A15" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B15" t="s">
+        <v>198</v>
+      </c>
+      <c r="C15" t="s">
+        <v>199</v>
+      </c>
+      <c r="D15" s="2">
+        <v>45699</v>
+      </c>
+      <c r="E15">
+        <v>2</v>
+      </c>
+      <c r="F15">
+        <v>2</v>
+      </c>
+      <c r="G15" s="5" t="s">
+        <v>200</v>
+      </c>
+      <c r="H15" t="s">
+        <v>160</v>
+      </c>
+      <c r="I15" t="s">
+        <v>201</v>
       </c>
     </row>
   </sheetData>

--- a/数据处理清单.xlsx
+++ b/数据处理清单.xlsx
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="340" uniqueCount="202">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="356" uniqueCount="212">
   <si>
     <t>完成情况</t>
   </si>
@@ -755,6 +755,59 @@
   </si>
   <si>
     <t>标准分析+自动定义</t>
+  </si>
+  <si>
+    <t>CQT2024090901-F005</t>
+  </si>
+  <si>
+    <t>/cqproj22/Project/SC_CQT2024090901-F005_mouse_20250214</t>
+  </si>
+  <si>
+    <t>大肠</t>
+  </si>
+  <si>
+    <t>标准分析，分析的时候需要加上F001分期下的1个样本一块，共计2个样本进行标准分析，自动定义就行</t>
+  </si>
+  <si>
+    <t>CQT2025011602-F001</t>
+  </si>
+  <si>
+    <t>/cqproj22/Project/SC_CQT2025011602-F001_mouse_2025-02-17</t>
+  </si>
+  <si>
+    <t>皮肤伤口组织</t>
+  </si>
+  <si>
+    <t>1.样本Control重新定量（/cqproj51/Project/SC_CQT2025011602-F001_mouse_2025-02-13，卡细胞数在1w左右）
+2.自动定义+统计细胞占比（需要确定下是单独的一群低质量的细胞，还是一大群低质量的细胞）</t>
+  </si>
+  <si>
+    <t>CQT2024091701-S007</t>
+  </si>
+  <si>
+    <t>1.S003 Stromal cells and glia 
+ 1.1.重新进行细胞定义（经协商，客户说删除cluster10和14即可），绘制marker的气泡图；（完成，0214交付）
+ 1.2.各亚群细胞比例统计比较，P值保留小数点后3位；（完成，0214交付）
+ 1.3.对定义后的细胞进行通路富集分析（完成，0214交付）、拟时序分析；（完成）
+ 1.4.对定义为Fibroblasts, Myofibroblasts, Pericytes / Smooth muscle cells的细胞亚群进行转录因子分析；（先暂时停止转录因子相关的分析）
+2.S003 Epithelial cells 
+ 2.1.重新进行细胞定义，绘制marker的气泡图；（完成，0214交付）
+ 2.2.各亚群细胞比例统计比较，P值保留小数点后3位；（完成，0214交付）
+3.S003 Myeloid cells
+ 3.1.各亚群细胞比例统计比较，P值保留小数点后3位；（完成，0214交付）
+ 3.2.对定义后的细胞进行通路富集分析（完成，0214交付）、拟时序分析；（完成）
+ 3.3.对定义为Neutrophils的cluster进一步降维；（完成）
+4.S003 T cells 细胞
+ 4.1.各亚群细胞比例统计比较，P值保留小数点后3位；（完成，0214交付）
+5.S003 B cells 细胞
+ 5.1.各亚群细胞比例统计比较，P值保留小数点后3位；（完成，0214交付）
+6.细胞通讯分析
+ 6.1.先对下列细胞群进行细胞通讯分析：T cells, B cells, Mono / Macro, DCs, Neutrophils, Fibroblasts, Epithelial cells（完成）
+ 6.2.选出第一点的结果中相互作用最强的前三对细胞，再根据亚群定义的类型，比较每一对细胞各亚群间的细胞通讯差异。（运营反馈分析成纤维细胞-巨噬、成纤维细胞-中性粒、成纤维细胞-上皮这三组）（完成）
+7.富集分析
+ 7.1麻烦分别对T cells, Myeloid cells, Stromal cells and glia, Epithelial cells总的细胞cluster和各亚群细胞均进行组间KEGG、GO富集分析，提供分析结果，将P值最小的前20个条目绘制气泡图（完成）
+8.S006中的需求6改为分三个组做做T细胞亚群和髓系细胞的细胞通讯分析（完成）
+9.提高T细胞分辨率，分亚群更细些，看看能不能把CD4和CD8分开（完成）</t>
   </si>
 </sst>
 </file>
@@ -1389,7 +1442,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1410,9 +1463,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
@@ -1944,8 +1994,8 @@
   <sheetPr/>
   <dimension ref="A1:E63"/>
   <sheetViews>
-    <sheetView topLeftCell="A20" workbookViewId="0">
-      <selection activeCell="C59" sqref="C59"/>
+    <sheetView topLeftCell="A27" workbookViewId="0">
+      <selection activeCell="C60" sqref="C60"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="4"/>
@@ -3020,10 +3070,10 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:I15"/>
+  <dimension ref="A1:I18"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I12" sqref="I12"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="B18" sqref="B18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -3355,7 +3405,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="12" ht="256.5" spans="1:9">
+    <row r="12" ht="14.25" spans="1:9">
       <c r="A12" s="3" t="s">
         <v>5</v>
       </c>
@@ -3380,7 +3430,7 @@
       <c r="H12" t="s">
         <v>160</v>
       </c>
-      <c r="I12" s="7" t="s">
+      <c r="I12" s="6" t="s">
         <v>190</v>
       </c>
     </row>
@@ -3438,7 +3488,7 @@
       <c r="H14" t="s">
         <v>196</v>
       </c>
-      <c r="I14" s="8" t="s">
+      <c r="I14" s="7" t="s">
         <v>197</v>
       </c>
     </row>
@@ -3467,8 +3517,89 @@
       <c r="H15" t="s">
         <v>160</v>
       </c>
-      <c r="I15" t="s">
+      <c r="I15" s="7" t="s">
         <v>201</v>
+      </c>
+    </row>
+    <row r="16" ht="14.25" spans="1:9">
+      <c r="A16" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B16" t="s">
+        <v>202</v>
+      </c>
+      <c r="C16" t="s">
+        <v>203</v>
+      </c>
+      <c r="D16" s="2">
+        <v>45702</v>
+      </c>
+      <c r="E16">
+        <v>2</v>
+      </c>
+      <c r="F16">
+        <v>2</v>
+      </c>
+      <c r="G16" t="s">
+        <v>204</v>
+      </c>
+      <c r="H16" t="s">
+        <v>160</v>
+      </c>
+      <c r="I16" s="7" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="17" spans="2:9">
+      <c r="B17" t="s">
+        <v>206</v>
+      </c>
+      <c r="C17" t="s">
+        <v>207</v>
+      </c>
+      <c r="D17" s="2">
+        <v>45706</v>
+      </c>
+      <c r="E17">
+        <v>2</v>
+      </c>
+      <c r="F17">
+        <v>2</v>
+      </c>
+      <c r="G17" t="s">
+        <v>208</v>
+      </c>
+      <c r="H17" t="s">
+        <v>160</v>
+      </c>
+      <c r="I17" s="7" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="18" spans="2:9">
+      <c r="B18" t="s">
+        <v>210</v>
+      </c>
+      <c r="C18" t="s">
+        <v>30</v>
+      </c>
+      <c r="D18" s="2">
+        <v>45706</v>
+      </c>
+      <c r="E18">
+        <v>4</v>
+      </c>
+      <c r="F18">
+        <v>9</v>
+      </c>
+      <c r="G18" t="s">
+        <v>170</v>
+      </c>
+      <c r="H18" t="s">
+        <v>196</v>
+      </c>
+      <c r="I18" s="7" t="s">
+        <v>211</v>
       </c>
     </row>
   </sheetData>
